--- a/input_data/do.xlsx
+++ b/input_data/do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alexey\orderDeadlineChecker\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02628B-681D-4876-A584-ADAAD7366ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97BECB-5301-4813-9EC1-D72CDFE2D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="4129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="4533">
   <si>
     <t>Заказ</t>
   </si>
@@ -12412,12 +12412,1227 @@
   </si>
   <si>
     <t>00ЦБ-036001</t>
+  </si>
+  <si>
+    <t>Амфора ООО Смоленская область Отгрузка 19.12.2023 № 00ЦБ-034873</t>
+  </si>
+  <si>
+    <t>00ЦБ-034873</t>
+  </si>
+  <si>
+    <t>ВЕГА ГРУПП ООО Отгрузка 19.12.2023 № 00ЦБ-035473</t>
+  </si>
+  <si>
+    <t>00ЦБ-035473</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 19.12.2023 № 00ЦБ-036084</t>
+  </si>
+  <si>
+    <t>00ЦБ-036084</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 19.12.2023 № 00ЦБ-036085</t>
+  </si>
+  <si>
+    <t>00ЦБ-036085</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 19.12.2023 № 00ЦБ-036086</t>
+  </si>
+  <si>
+    <t>00ЦБ-036086</t>
+  </si>
+  <si>
+    <t>Волна ТК ООО г. Петрозаводск Отгрузка 19.12.2023 № 00ЦБ-036673</t>
+  </si>
+  <si>
+    <t>00ЦБ-036673</t>
+  </si>
+  <si>
+    <t>Альтаир ТД ООО г. Иваново Отгрузка 19.12.2023 № 00ЦБ-037011</t>
+  </si>
+  <si>
+    <t>00ЦБ-037011</t>
+  </si>
+  <si>
+    <t>АЛКО-ТРЕЙД ООО Отгрузка 19.12.2023 № 00ЦБ-037012</t>
+  </si>
+  <si>
+    <t>00ЦБ-037012</t>
+  </si>
+  <si>
+    <t>ПИОНЕР ООО Отгрузка 19.12.2023 № 00ЦБ-037021</t>
+  </si>
+  <si>
+    <t>00ЦБ-037021</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 19.12.2023 № 00ЦБ-037042</t>
+  </si>
+  <si>
+    <t>00ЦБ-037042</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 19.12.2023 № 00ЦБ-037153</t>
+  </si>
+  <si>
+    <t>00ЦБ-037153</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 19.12.2023 № 00ЦБ-037154</t>
+  </si>
+  <si>
+    <t>00ЦБ-037154</t>
+  </si>
+  <si>
+    <t>Картвел ООО Отгрузка 19.12.2023 № 00ЦБ-037160</t>
+  </si>
+  <si>
+    <t>00ЦБ-037160</t>
+  </si>
+  <si>
+    <t>Ресурс 38 ООО Отгрузка 19.12.2023 № 00ЦБ-037201</t>
+  </si>
+  <si>
+    <t>00ЦБ-037201</t>
+  </si>
+  <si>
+    <t>Вина Всего Мира ООО г. Киров Отгрузка 20.12.2023 № 00ЦБ-033130</t>
+  </si>
+  <si>
+    <t>00ЦБ-033130</t>
+  </si>
+  <si>
+    <t>Вина Всего Мира ООО г. Киров Отгрузка 20.12.2023 № 00ЦБ-033375</t>
+  </si>
+  <si>
+    <t>00ЦБ-033375</t>
+  </si>
+  <si>
+    <t>МИРТОРГ Отгрузка 20.12.2023 № 00ЦБ-035420</t>
+  </si>
+  <si>
+    <t>00ЦБ-035420</t>
+  </si>
+  <si>
+    <t>АЛТИМА ООО Краснодар Отгрузка 20.12.2023 № 00ЦБ-036384</t>
+  </si>
+  <si>
+    <t>00ЦБ-036384</t>
+  </si>
+  <si>
+    <t>Гарант новый век ООО г. Северодвинск Отгрузка 20.12.2023 № 00ЦБ-036412</t>
+  </si>
+  <si>
+    <t>00ЦБ-036412</t>
+  </si>
+  <si>
+    <t>СОЛНЦЕ В БОКАЛЕ ООО Отгрузка 20.12.2023 № 00ЦБ-036632</t>
+  </si>
+  <si>
+    <t>00ЦБ-036632</t>
+  </si>
+  <si>
+    <t>ФЕЕРИЯ ПЛЮС ООО Отгрузка 20.12.2023 № 00ЦБ-036635</t>
+  </si>
+  <si>
+    <t>00ЦБ-036635</t>
+  </si>
+  <si>
+    <t>Премьер ООО г.Казань Отгрузка 20.12.2023 № 00ЦБ-036650</t>
+  </si>
+  <si>
+    <t>00ЦБ-036650</t>
+  </si>
+  <si>
+    <t>ООО "ТК "МАКСИМА" Отгрузка 20.12.2023 № 00ЦБ-036656</t>
+  </si>
+  <si>
+    <t>00ЦБ-036656</t>
+  </si>
+  <si>
+    <t>ООО "ТК "МАКСИМА" Отгрузка 20.12.2023 № 00ЦБ-036657</t>
+  </si>
+  <si>
+    <t>00ЦБ-036657</t>
+  </si>
+  <si>
+    <t>САНРАЙЗ ООО Отгрузка 20.12.2023 № 00ЦБ-036670</t>
+  </si>
+  <si>
+    <t>00ЦБ-036670</t>
+  </si>
+  <si>
+    <t>Картвел ООО Отгрузка 20.12.2023 № 00ЦБ-037161</t>
+  </si>
+  <si>
+    <t>00ЦБ-037161</t>
+  </si>
+  <si>
+    <t>Астарта ПКФ ООО Отгрузка 20.12.2023 № 00ЦБ-037446</t>
+  </si>
+  <si>
+    <t>00ЦБ-037446</t>
+  </si>
+  <si>
+    <t>Корвина ООО Омск Отгрузка 20.12.2023 № 00ЦБ-037393</t>
+  </si>
+  <si>
+    <t>00ЦБ-037393</t>
+  </si>
+  <si>
+    <t>СМАРТ ООО Отгрузка 20.12.2023 № 00ЦБ-037411</t>
+  </si>
+  <si>
+    <t>00ЦБ-037411</t>
+  </si>
+  <si>
+    <t>ИНВЕСТ ООО Отгрузка 20.12.2023 № 00ЦБ-037437</t>
+  </si>
+  <si>
+    <t>00ЦБ-037437</t>
+  </si>
+  <si>
+    <t>АЛТИМА ООО Краснодар Отгрузка 20.12.2023 № 00ЦБ-037453</t>
+  </si>
+  <si>
+    <t>00ЦБ-037453</t>
+  </si>
+  <si>
+    <t>Астарта ПКФ ООО Отгрузка 20.12.2023 № 00ЦБ-037466</t>
+  </si>
+  <si>
+    <t>00ЦБ-037466</t>
+  </si>
+  <si>
+    <t>ТК-РУСАЛ ООО Отгрузка 20.12.2023 № 00ЦБ-037481</t>
+  </si>
+  <si>
+    <t>00ЦБ-037481</t>
+  </si>
+  <si>
+    <t>АЛТИМА ООО Краснодар Отгрузка 21.12.2023 № 00ЦБ-036310</t>
+  </si>
+  <si>
+    <t>00ЦБ-036310</t>
+  </si>
+  <si>
+    <t>Арсенал-ТК ООО г. Новосибирск Отгрузка 21.12.2023 № 00ЦБ-036593</t>
+  </si>
+  <si>
+    <t>00ЦБ-036593</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 21.12.2023 № 00ЦБ-036633</t>
+  </si>
+  <si>
+    <t>00ЦБ-036633</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 21.12.2023 № 00ЦБ-036642</t>
+  </si>
+  <si>
+    <t>00ЦБ-036642</t>
+  </si>
+  <si>
+    <t>Дитрейд ООО Отгрузка 21.12.2023 № 00ЦБ-036838</t>
+  </si>
+  <si>
+    <t>00ЦБ-036838</t>
+  </si>
+  <si>
+    <t>Фирма Саман ООО г. Казань Отгрузка 21.12.2023 № 00ЦБ-036837</t>
+  </si>
+  <si>
+    <t>00ЦБ-036837</t>
+  </si>
+  <si>
+    <t>Ива ООО г. Новокузнецк Отгрузка 21.12.2023 № 00ЦБ-037203</t>
+  </si>
+  <si>
+    <t>00ЦБ-037203</t>
+  </si>
+  <si>
+    <t>ТРЕЙД-АЛКО ООО Отгрузка 21.12.2023 № 00ЦБ-037405</t>
+  </si>
+  <si>
+    <t>00ЦБ-037405</t>
+  </si>
+  <si>
+    <t>Фирма Саман ООО г. Казань Отгрузка 21.12.2023 № 00ЦБ-037425</t>
+  </si>
+  <si>
+    <t>00ЦБ-037425</t>
+  </si>
+  <si>
+    <t>АЛТИМА ООО Краснодар Отгрузка 21.12.2023 № 00ЦБ-037454</t>
+  </si>
+  <si>
+    <t>00ЦБ-037454</t>
+  </si>
+  <si>
+    <t>Бридер ООО г. Биробиджан Отгрузка 21.12.2023 № 00ЦБ-037455</t>
+  </si>
+  <si>
+    <t>00ЦБ-037455</t>
+  </si>
+  <si>
+    <t>АЛТИМА ООО Краснодар Отгрузка 21.12.2023 № 00ЦБ-037457</t>
+  </si>
+  <si>
+    <t>00ЦБ-037457</t>
+  </si>
+  <si>
+    <t>Бридер ООО г. Биробиджан Отгрузка 21.12.2023 № 00ЦБ-037458</t>
+  </si>
+  <si>
+    <t>00ЦБ-037458</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 21.12.2023 № 00ЦБ-037462</t>
+  </si>
+  <si>
+    <t>00ЦБ-037462</t>
+  </si>
+  <si>
+    <t>ГУЛЛИВЕР АО г. Ульяновск Отгрузка 21.12.2023 № 00ЦБ-037506</t>
+  </si>
+  <si>
+    <t>00ЦБ-037506</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 21.12.2023 № 00ЦБ-037511</t>
+  </si>
+  <si>
+    <t>00ЦБ-037511</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 21.12.2023 № 00ЦБ-037730</t>
+  </si>
+  <si>
+    <t>00ЦБ-037730</t>
+  </si>
+  <si>
+    <t>ПАРТНЕР ООО Отгрузка 22.12.2023 № 00ЦБ-033686</t>
+  </si>
+  <si>
+    <t>00ЦБ-033686</t>
+  </si>
+  <si>
+    <t>ПАРТНЕР ООО Отгрузка 22.12.2023 № 00ЦБ-033687</t>
+  </si>
+  <si>
+    <t>00ЦБ-033687</t>
+  </si>
+  <si>
+    <t>Визаж ПКФ  г. Хабаровск Отгрузка 22.12.2023 № 00ЦБ-036630</t>
+  </si>
+  <si>
+    <t>00ЦБ-036630</t>
+  </si>
+  <si>
+    <t>Инвина-ЮТК ООО Отгрузка 22.12.2023 № 00ЦБ-036969</t>
+  </si>
+  <si>
+    <t>00ЦБ-036969</t>
+  </si>
+  <si>
+    <t>Инвина-ЮТК ООО Отгрузка 22.12.2023 № 00ЦБ-036975</t>
+  </si>
+  <si>
+    <t>00ЦБ-036975</t>
+  </si>
+  <si>
+    <t>ОС-Алко ООО Отгрузка 22.12.2023 № 00ЦБ-037022</t>
+  </si>
+  <si>
+    <t>00ЦБ-037022</t>
+  </si>
+  <si>
+    <t>ОС-Алко ООО Отгрузка 22.12.2023 № 00ЦБ-037023</t>
+  </si>
+  <si>
+    <t>00ЦБ-037023</t>
+  </si>
+  <si>
+    <t>Ресурс 38 ООО Отгрузка 22.12.2023 № 00ЦБ-037202</t>
+  </si>
+  <si>
+    <t>00ЦБ-037202</t>
+  </si>
+  <si>
+    <t>Визаж ПКФ  г. Хабаровск Отгрузка 22.12.2023 № 00ЦБ-037520</t>
+  </si>
+  <si>
+    <t>00ЦБ-037520</t>
+  </si>
+  <si>
+    <t>Забава ООО Отгрузка 22.12.2023 № 00ЦБ-037558</t>
+  </si>
+  <si>
+    <t>00ЦБ-037558</t>
+  </si>
+  <si>
+    <t>Забава ООО Отгрузка 22.12.2023 № 00ЦБ-037559</t>
+  </si>
+  <si>
+    <t>00ЦБ-037559</t>
+  </si>
+  <si>
+    <t>Ди Продэкс ТОО Отгрузка 23.12.2023 № 00ЦБ-015433</t>
+  </si>
+  <si>
+    <t>00ЦБ-015433</t>
+  </si>
+  <si>
+    <t>Ди Продэкс ТОО Отгрузка 23.12.2023 № 00ЦБ-034833</t>
+  </si>
+  <si>
+    <t>00ЦБ-034833</t>
+  </si>
+  <si>
+    <t>Ди Продэкс ТОО Отгрузка 23.12.2023 № 00ЦБ-034953</t>
+  </si>
+  <si>
+    <t>00ЦБ-034953</t>
+  </si>
+  <si>
+    <t>Ди Продэкс ТОО Отгрузка 23.12.2023 № 00ЦБ-034954</t>
+  </si>
+  <si>
+    <t>00ЦБ-034954</t>
+  </si>
+  <si>
+    <t>Мега-ЮГ ТД  ООО Отгрузка 23.12.2023 № 00ЦБ-036501</t>
+  </si>
+  <si>
+    <t>00ЦБ-036501</t>
+  </si>
+  <si>
+    <t>Визаж ПКФ  г. Хабаровск Отгрузка 23.12.2023 № 00ЦБ-036631</t>
+  </si>
+  <si>
+    <t>00ЦБ-036631</t>
+  </si>
+  <si>
+    <t>Добрыня Отгрузка 23.12.2023 № 00ЦБ-036842</t>
+  </si>
+  <si>
+    <t>00ЦБ-036842</t>
+  </si>
+  <si>
+    <t>Добрыня Отгрузка 23.12.2023 № 00ЦБ-036843</t>
+  </si>
+  <si>
+    <t>00ЦБ-036843</t>
+  </si>
+  <si>
+    <t>ФАРН ООО Отгрузка 23.12.2023 № 00ЦБ-037156</t>
+  </si>
+  <si>
+    <t>00ЦБ-037156</t>
+  </si>
+  <si>
+    <t>МастерТрейд ООО г. Новосибирск Отгрузка 23.12.2023 № 00ЦБ-037406</t>
+  </si>
+  <si>
+    <t>00ЦБ-037406</t>
+  </si>
+  <si>
+    <t>МастерТрейд ООО г. Новосибирск Отгрузка 23.12.2023 № 00ЦБ-037407</t>
+  </si>
+  <si>
+    <t>00ЦБ-037407</t>
+  </si>
+  <si>
+    <t>МастерТрейд ООО г. Новосибирск Отгрузка 23.12.2023 № 00ЦБ-037408</t>
+  </si>
+  <si>
+    <t>00ЦБ-037408</t>
+  </si>
+  <si>
+    <t>ДАСКО - опт ВВК ООО г. Уфа Отгрузка 23.12.2023 № 00ЦБ-037416</t>
+  </si>
+  <si>
+    <t>00ЦБ-037416</t>
+  </si>
+  <si>
+    <t>ДАСКО - опт ВВК ООО г. Уфа Отгрузка 23.12.2023 № 00ЦБ-037415</t>
+  </si>
+  <si>
+    <t>00ЦБ-037415</t>
+  </si>
+  <si>
+    <t>Партнер ООО г. Ярославль Отгрузка 23.12.2023 № 00ЦБ-037440</t>
+  </si>
+  <si>
+    <t>00ЦБ-037440</t>
+  </si>
+  <si>
+    <t>Партнер ООО г. Ярославль Отгрузка 23.12.2023 № 00ЦБ-037467</t>
+  </si>
+  <si>
+    <t>00ЦБ-037467</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 23.12.2023 № 00ЦБ-037469</t>
+  </si>
+  <si>
+    <t>00ЦБ-037469</t>
+  </si>
+  <si>
+    <t>Визаж ПКФ  г. Хабаровск Отгрузка 23.12.2023 № 00ЦБ-037519</t>
+  </si>
+  <si>
+    <t>00ЦБ-037519</t>
+  </si>
+  <si>
+    <t>ВВВК ООО г. Воронеж Отгрузка 23.12.2023 № 00ЦБ-037524</t>
+  </si>
+  <si>
+    <t>00ЦБ-037524</t>
+  </si>
+  <si>
+    <t>Вина Всего Мира ООО г. Киров Отгрузка 23.12.2023 № 00ЦБ-037536</t>
+  </si>
+  <si>
+    <t>00ЦБ-037536</t>
+  </si>
+  <si>
+    <t>Гармония ПКФ ООО г.Н.Новгород Отгрузка 23.12.2023 № 00ЦБ-037538</t>
+  </si>
+  <si>
+    <t>00ЦБ-037538</t>
+  </si>
+  <si>
+    <t>Гармония ПКФ ООО г.Н.Новгород Отгрузка 23.12.2023 № 00ЦБ-037541</t>
+  </si>
+  <si>
+    <t>00ЦБ-037541</t>
+  </si>
+  <si>
+    <t>АЛКОГРАД ООО Отгрузка 23.12.2023 № 00ЦБ-037542</t>
+  </si>
+  <si>
+    <t>00ЦБ-037542</t>
+  </si>
+  <si>
+    <t>Провиант ООО Отгрузка 23.12.2023 № 00ЦБ-037544</t>
+  </si>
+  <si>
+    <t>00ЦБ-037544</t>
+  </si>
+  <si>
+    <t>ДИРЕКТ ЛОГИСТИК  ООО Отгрузка 23.12.2023 № 00ЦБ-037547</t>
+  </si>
+  <si>
+    <t>00ЦБ-037547</t>
+  </si>
+  <si>
+    <t>Провиант ООО Отгрузка 23.12.2023 № 00ЦБ-037551</t>
+  </si>
+  <si>
+    <t>00ЦБ-037551</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 23.12.2023 № 00ЦБ-037553</t>
+  </si>
+  <si>
+    <t>00ЦБ-037553</t>
+  </si>
+  <si>
+    <t>Опт Алко Отгрузка 23.12.2023 № 00ЦБ-037560</t>
+  </si>
+  <si>
+    <t>00ЦБ-037560</t>
+  </si>
+  <si>
+    <t>ДАСКО - опт ВВК ООО г. Уфа Отгрузка 23.12.2023 № 00ЦБ-037564</t>
+  </si>
+  <si>
+    <t>00ЦБ-037564</t>
+  </si>
+  <si>
+    <t>Абсолют ООО г. Жигулёвск Отгрузка 23.12.2023 № 00ЦБ-037728</t>
+  </si>
+  <si>
+    <t>00ЦБ-037728</t>
+  </si>
+  <si>
+    <t>ВДК ООО Владивосток Отгрузка 23.12.2023 № 00ЦБ-037740</t>
+  </si>
+  <si>
+    <t>00ЦБ-037740</t>
+  </si>
+  <si>
+    <t>ВДК ООО Владивосток Отгрузка 23.12.2023 № 00ЦБ-037745</t>
+  </si>
+  <si>
+    <t>00ЦБ-037745</t>
+  </si>
+  <si>
+    <t>ВДК ООО Владивосток Отгрузка 23.12.2023 № 00ЦБ-037747</t>
+  </si>
+  <si>
+    <t>00ЦБ-037747</t>
+  </si>
+  <si>
+    <t>ВДК ООО Владивосток Отгрузка 23.12.2023 № 00ЦБ-037748</t>
+  </si>
+  <si>
+    <t>00ЦБ-037748</t>
+  </si>
+  <si>
+    <t>ВиноГрад ООО г. Чита Отгрузка 23.12.2023 № 00ЦБ-037753</t>
+  </si>
+  <si>
+    <t>00ЦБ-037753</t>
+  </si>
+  <si>
+    <t>АЛКОГРАД ООО Отгрузка 23.12.2023 № 00ЦБ-037758</t>
+  </si>
+  <si>
+    <t>00ЦБ-037758</t>
+  </si>
+  <si>
+    <t>АЛКОГРАД ООО Отгрузка 23.12.2023 № 00ЦБ-037759</t>
+  </si>
+  <si>
+    <t>00ЦБ-037759</t>
+  </si>
+  <si>
+    <t>Восток ДК г. Владивосток Отгрузка 23.12.2023 № 00ЦБ-037803</t>
+  </si>
+  <si>
+    <t>00ЦБ-037803</t>
+  </si>
+  <si>
+    <t>ЭВЕНТУС ООО г.Южно-Сахалинск Отгрузка 23.12.2023 № 00ЦБ-037808</t>
+  </si>
+  <si>
+    <t>00ЦБ-037808</t>
+  </si>
+  <si>
+    <t>Добрыня Отгрузка 23.12.2023 № 00ЦБ-037819</t>
+  </si>
+  <si>
+    <t>00ЦБ-037819</t>
+  </si>
+  <si>
+    <t>Добрыня Отгрузка 23.12.2023 № 00ЦБ-037820</t>
+  </si>
+  <si>
+    <t>00ЦБ-037820</t>
+  </si>
+  <si>
+    <t>Партнер ООО г. Ярославль Отгрузка 23.12.2023 № 00ЦБ-037826</t>
+  </si>
+  <si>
+    <t>00ЦБ-037826</t>
+  </si>
+  <si>
+    <t>ВДК ООО Владивосток Отгрузка 23.12.2023 № 00ЦБ-037847</t>
+  </si>
+  <si>
+    <t>00ЦБ-037847</t>
+  </si>
+  <si>
+    <t>ВДК ООО Владивосток Отгрузка 23.12.2023 № 00ЦБ-037849</t>
+  </si>
+  <si>
+    <t>00ЦБ-037849</t>
+  </si>
+  <si>
+    <t>ООО Компания "КРЕДОС" Отгрузка 23.12.2023 № 00ЦБ-037854</t>
+  </si>
+  <si>
+    <t>00ЦБ-037854</t>
+  </si>
+  <si>
+    <t>ООО Компания "КРЕДОС" Отгрузка 23.12.2023 № 00ЦБ-038040</t>
+  </si>
+  <si>
+    <t>00ЦБ-038040</t>
+  </si>
+  <si>
+    <t>Дионис ТД  ООО г. Пенза Отгрузка 25.12.2023 № 00ЦБ-035154</t>
+  </si>
+  <si>
+    <t>00ЦБ-035154</t>
+  </si>
+  <si>
+    <t>Меркурий ТПП ООО г. Ставрополь Отгрузка 25.12.2023 № 00ЦБ-035175</t>
+  </si>
+  <si>
+    <t>00ЦБ-035175</t>
+  </si>
+  <si>
+    <t>Александрия ООО Курская область Отгрузка 25.12.2023 № 00ЦБ-037041</t>
+  </si>
+  <si>
+    <t>00ЦБ-037041</t>
+  </si>
+  <si>
+    <t>Октава ООО Отгрузка 25.12.2023 № 00ЦБ-037459</t>
+  </si>
+  <si>
+    <t>00ЦБ-037459</t>
+  </si>
+  <si>
+    <t>Гармония ПКФ ООО г.Н.Новгород Отгрузка 25.12.2023 № 00ЦБ-037539</t>
+  </si>
+  <si>
+    <t>00ЦБ-037539</t>
+  </si>
+  <si>
+    <t>Алкобренд-М ООО Отгрузка 25.12.2023 № 00ЦБ-037545</t>
+  </si>
+  <si>
+    <t>00ЦБ-037545</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 25.12.2023 № 00ЦБ-037549</t>
+  </si>
+  <si>
+    <t>00ЦБ-037549</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 25.12.2023 № 00ЦБ-037550</t>
+  </si>
+  <si>
+    <t>00ЦБ-037550</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 25.12.2023 № 00ЦБ-037552</t>
+  </si>
+  <si>
+    <t>00ЦБ-037552</t>
+  </si>
+  <si>
+    <t>КРАЙСАЛКО ООО Отгрузка 25.12.2023 № 00ЦБ-037556</t>
+  </si>
+  <si>
+    <t>00ЦБ-037556</t>
+  </si>
+  <si>
+    <t>КРАЙСАЛКО ООО Отгрузка 25.12.2023 № 00ЦБ-037557</t>
+  </si>
+  <si>
+    <t>00ЦБ-037557</t>
+  </si>
+  <si>
+    <t>ТД АЛЯСКА ООО Отгрузка 25.12.2023 № 00ЦБ-037738</t>
+  </si>
+  <si>
+    <t>00ЦБ-037738</t>
+  </si>
+  <si>
+    <t>Феникс плюс ООО г. Улан-Удэ Отгрузка 25.12.2023 № 00ЦБ-037754</t>
+  </si>
+  <si>
+    <t>00ЦБ-037754</t>
+  </si>
+  <si>
+    <t>Феникс плюс ООО г. Улан-Удэ Отгрузка 25.12.2023 № 00ЦБ-037755</t>
+  </si>
+  <si>
+    <t>00ЦБ-037755</t>
+  </si>
+  <si>
+    <t>Сервико Плюс ООО г. Чита Отгрузка 25.12.2023 № 00ЦБ-037756</t>
+  </si>
+  <si>
+    <t>00ЦБ-037756</t>
+  </si>
+  <si>
+    <t>Сервико Плюс ООО г. Чита Отгрузка 25.12.2023 № 00ЦБ-037757</t>
+  </si>
+  <si>
+    <t>00ЦБ-037757</t>
+  </si>
+  <si>
+    <t>Энергия ООО г. Ульяновск Отгрузка 25.12.2023 № 00ЦБ-037806</t>
+  </si>
+  <si>
+    <t>00ЦБ-037806</t>
+  </si>
+  <si>
+    <t>Лион ТД  ООО г. Пермь Отгрузка 25.12.2023 № 00ЦБ-037821</t>
+  </si>
+  <si>
+    <t>00ЦБ-037821</t>
+  </si>
+  <si>
+    <t>Лион ТД  ООО г. Пермь Отгрузка 25.12.2023 № 00ЦБ-037822</t>
+  </si>
+  <si>
+    <t>00ЦБ-037822</t>
+  </si>
+  <si>
+    <t>Лион ТД  ООО г. Пермь Отгрузка 25.12.2023 № 00ЦБ-037862</t>
+  </si>
+  <si>
+    <t>00ЦБ-037862</t>
+  </si>
+  <si>
+    <t>СЛАДКАЯ ЖИЗНЬ ПЛЮС ООО Отгрузка 25.12.2023 № 00ЦБ-037899</t>
+  </si>
+  <si>
+    <t>00ЦБ-037899</t>
+  </si>
+  <si>
+    <t>Сервико Плюс ООО г. Чита Отгрузка 25.12.2023 № 00ЦБ-038281</t>
+  </si>
+  <si>
+    <t>00ЦБ-038281</t>
+  </si>
+  <si>
+    <t>Феникс плюс ООО г. Улан-Удэ Отгрузка 25.12.2023 № 00ЦБ-038284</t>
+  </si>
+  <si>
+    <t>00ЦБ-038284</t>
+  </si>
+  <si>
+    <t>КРАЙСАЛКО ООО Отгрузка 25.12.2023 № 00ЦБ-038285</t>
+  </si>
+  <si>
+    <t>00ЦБ-038285</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 25.12.2023 № 00ЦБ-038286</t>
+  </si>
+  <si>
+    <t>00ЦБ-038286</t>
+  </si>
+  <si>
+    <t>Hoang Phong International Trading Limited Company  Отгрузка 26.12.2023 № 00ЦБ-034140</t>
+  </si>
+  <si>
+    <t>00ЦБ-034140</t>
+  </si>
+  <si>
+    <t>Hoang Phong International Trading Limited Company  Отгрузка 26.12.2023 № 00ЦБ-036016</t>
+  </si>
+  <si>
+    <t>00ЦБ-036016</t>
+  </si>
+  <si>
+    <t>Волна ТК ООО г. Петрозаводск Отгрузка 26.12.2023 № 00ЦБ-037189</t>
+  </si>
+  <si>
+    <t>00ЦБ-037189</t>
+  </si>
+  <si>
+    <t>Волна ТК ООО г. Петрозаводск Отгрузка 26.12.2023 № 00ЦБ-037192</t>
+  </si>
+  <si>
+    <t>00ЦБ-037192</t>
+  </si>
+  <si>
+    <t>Меркурий ТПП ООО г. Ставрополь Отгрузка 26.12.2023 № 00ЦБ-037196</t>
+  </si>
+  <si>
+    <t>00ЦБ-037196</t>
+  </si>
+  <si>
+    <t>Гармония ПКФ ООО г.Н.Новгород Отгрузка 26.12.2023 № 00ЦБ-037537</t>
+  </si>
+  <si>
+    <t>00ЦБ-037537</t>
+  </si>
+  <si>
+    <t>Альтаир ТД ООО г. Иваново Отгрузка 26.12.2023 № 00ЦБ-037548</t>
+  </si>
+  <si>
+    <t>00ЦБ-037548</t>
+  </si>
+  <si>
+    <t>АРИС ПКФ г. Смоленск Отгрузка 26.12.2023 № 00ЦБ-037739</t>
+  </si>
+  <si>
+    <t>00ЦБ-037739</t>
+  </si>
+  <si>
+    <t>ВЕГА ГРУПП ООО Отгрузка 26.12.2023 № 00ЦБ-037749</t>
+  </si>
+  <si>
+    <t>00ЦБ-037749</t>
+  </si>
+  <si>
+    <t>Альтаир ООО Тверь Отгрузка 26.12.2023 № 00ЦБ-037809</t>
+  </si>
+  <si>
+    <t>00ЦБ-037809</t>
+  </si>
+  <si>
+    <t>Альтаир ТД ООО г. Иваново Отгрузка 26.12.2023 № 00ЦБ-038045</t>
+  </si>
+  <si>
+    <t>00ЦБ-038045</t>
+  </si>
+  <si>
+    <t>Меркурий ТПП ООО г. Ставрополь Отгрузка 26.12.2023 № 00ЦБ-038053</t>
+  </si>
+  <si>
+    <t>00ЦБ-038053</t>
+  </si>
+  <si>
+    <t>Абсолют ООО г. Жигулёвск Отгрузка 26.12.2023 № 00ЦБ-038055</t>
+  </si>
+  <si>
+    <t>00ЦБ-038055</t>
+  </si>
+  <si>
+    <t>Ресурс 38 ООО Отгрузка 26.12.2023 № 00ЦБ-038298</t>
+  </si>
+  <si>
+    <t>00ЦБ-038298</t>
+  </si>
+  <si>
+    <t>Квадрат ООО Отгрузка 27.12.2023 № 00ЦБ-036504</t>
+  </si>
+  <si>
+    <t>00ЦБ-036504</t>
+  </si>
+  <si>
+    <t>ВЕГА ГРУПП ООО Отгрузка 27.12.2023 № 00ЦБ-037750</t>
+  </si>
+  <si>
+    <t>00ЦБ-037750</t>
+  </si>
+  <si>
+    <t>АЛКО-БРЭНД ООО Отгрузка 27.12.2023 № 00ЦБ-038046</t>
+  </si>
+  <si>
+    <t>00ЦБ-038046</t>
+  </si>
+  <si>
+    <t>АЛКО-БРЭНД ООО Отгрузка 27.12.2023 № 00ЦБ-038047</t>
+  </si>
+  <si>
+    <t>00ЦБ-038047</t>
+  </si>
+  <si>
+    <t>Люкс-Алко ООО Отгрузка 10.01.2024 № 00ЦБ-000655</t>
+  </si>
+  <si>
+    <t>00ЦБ-000655</t>
+  </si>
+  <si>
+    <t>ДИОНИС -1 ООО Отгрузка 15.01.2024 № 00ЦБ-000656</t>
+  </si>
+  <si>
+    <t>00ЦБ-000656</t>
+  </si>
+  <si>
+    <t>АНТАРЕС ООО Отгрузка 12.01.2024 № 00ЦБ-000857</t>
+  </si>
+  <si>
+    <t>00ЦБ-000857</t>
+  </si>
+  <si>
+    <t>ПИОНЕР ООО Отгрузка 15.01.2024 № 00ЦБ-000626</t>
+  </si>
+  <si>
+    <t>00ЦБ-000626</t>
+  </si>
+  <si>
+    <t>Вина Всего Мира ООО г. Киров Отгрузка 15.01.2024 № 00ЦБ-000658</t>
+  </si>
+  <si>
+    <t>00ЦБ-000658</t>
+  </si>
+  <si>
+    <t>Меркурий ТПП ООО г. Ставрополь Отгрузка 12.01.2024 № 00ЦБ-000672</t>
+  </si>
+  <si>
+    <t>00ЦБ-000672</t>
+  </si>
+  <si>
+    <t>Меркурий ТПП ООО г. Ставрополь Отгрузка 15.01.2024 № 00ЦБ-000673</t>
+  </si>
+  <si>
+    <t>00ЦБ-000673</t>
+  </si>
+  <si>
+    <t>АЛКОТРЕСТ ООО Отгрузка 15.01.2024 № 00ЦБ-000864</t>
+  </si>
+  <si>
+    <t>00ЦБ-000864</t>
+  </si>
+  <si>
+    <t>ТД АЛЯСКА ООО Отгрузка 13.01.2024 № 00ЦБ-000869</t>
+  </si>
+  <si>
+    <t>00ЦБ-000869</t>
+  </si>
+  <si>
+    <t>Гармония ПКФ ООО г.Н.Новгород Отгрузка 16.01.2024 № 00ЦБ-000938</t>
+  </si>
+  <si>
+    <t>00ЦБ-000938</t>
+  </si>
+  <si>
+    <t>НАК ООО Отгрузка 16.01.2024 № 00ЦБ-000940</t>
+  </si>
+  <si>
+    <t>00ЦБ-000940</t>
+  </si>
+  <si>
+    <t>Абсолют ООО г. Жигулёвск Отгрузка 16.01.2024 № 00ЦБ-000950</t>
+  </si>
+  <si>
+    <t>00ЦБ-000950</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 16.01.2024 № 00ЦБ-001071</t>
+  </si>
+  <si>
+    <t>00ЦБ-001071</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 16.01.2024 № 00ЦБ-001072</t>
+  </si>
+  <si>
+    <t>00ЦБ-001072</t>
+  </si>
+  <si>
+    <t>ДВ-АМУР ООО Отгрузка 16.01.2024 № 00ЦБ-001073</t>
+  </si>
+  <si>
+    <t>00ЦБ-001073</t>
+  </si>
+  <si>
+    <t>ООО "ТК "МАКСИМА" Отгрузка 16.01.2024 № 00ЦБ-001079</t>
+  </si>
+  <si>
+    <t>00ЦБ-001079</t>
+  </si>
+  <si>
+    <t>ООО "ТК "МАКСИМА" Отгрузка 16.01.2024 № 00ЦБ-001099</t>
+  </si>
+  <si>
+    <t>00ЦБ-001099</t>
+  </si>
+  <si>
+    <t>САТЕРА ООО Отгрузка 15.01.2024 № 00ЦБ-000628</t>
+  </si>
+  <si>
+    <t>00ЦБ-000628</t>
+  </si>
+  <si>
+    <t>БАХУС ООО Отгрузка 17.01.2024 № 00ЦБ-000676</t>
+  </si>
+  <si>
+    <t>00ЦБ-000676</t>
+  </si>
+  <si>
+    <t>БАХУС ООО Отгрузка 17.01.2024 № 00ЦБ-000677</t>
+  </si>
+  <si>
+    <t>00ЦБ-000677</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-000901</t>
+  </si>
+  <si>
+    <t>00ЦБ-000901</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-000903</t>
+  </si>
+  <si>
+    <t>00ЦБ-000903</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-000905</t>
+  </si>
+  <si>
+    <t>00ЦБ-000905</t>
+  </si>
+  <si>
+    <t>КРАЙСАЛКО ООО Отгрузка 17.01.2024 № 00ЦБ-000906</t>
+  </si>
+  <si>
+    <t>00ЦБ-000906</t>
+  </si>
+  <si>
+    <t>Сервико Плюс ООО г. Чита Отгрузка 17.01.2024 № 00ЦБ-000908</t>
+  </si>
+  <si>
+    <t>00ЦБ-000908</t>
+  </si>
+  <si>
+    <t>Сервико Плюс ООО г. Чита Отгрузка 17.01.2024 № 00ЦБ-000910</t>
+  </si>
+  <si>
+    <t>00ЦБ-000910</t>
+  </si>
+  <si>
+    <t>Феникс плюс ООО г. Улан-Удэ Отгрузка 17.01.2024 № 00ЦБ-000913</t>
+  </si>
+  <si>
+    <t>00ЦБ-000913</t>
+  </si>
+  <si>
+    <t>Апсны Дью Ти Отгрузка 18.01.2024 № 00ЦБ-001738</t>
+  </si>
+  <si>
+    <t>00ЦБ-001738</t>
+  </si>
+  <si>
+    <t>Апсны Дью Ти Отгрузка 18.01.2024 № 00ЦБ-001736</t>
+  </si>
+  <si>
+    <t>00ЦБ-001736</t>
+  </si>
+  <si>
+    <t>КДК ООО Отгрузка 18.01.2024 № 00ЦБ-000858</t>
+  </si>
+  <si>
+    <t>00ЦБ-000858</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-000900</t>
+  </si>
+  <si>
+    <t>00ЦБ-000900</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-000902</t>
+  </si>
+  <si>
+    <t>00ЦБ-000902</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-000904</t>
+  </si>
+  <si>
+    <t>00ЦБ-000904</t>
+  </si>
+  <si>
+    <t>КРАЙСАЛКО ООО Отгрузка 18.01.2024 № 00ЦБ-000907</t>
+  </si>
+  <si>
+    <t>00ЦБ-000907</t>
+  </si>
+  <si>
+    <t>Феникс плюс ООО г. Улан-Удэ Отгрузка 18.01.2024 № 00ЦБ-000912</t>
+  </si>
+  <si>
+    <t>00ЦБ-000912</t>
+  </si>
+  <si>
+    <t>КВАНТ ООО Отгрузка 18.01.2024 № 00ЦБ-001069</t>
+  </si>
+  <si>
+    <t>00ЦБ-001069</t>
+  </si>
+  <si>
+    <t>МОРЕ ПИВА ООО Отгрузка 16.01.2024 № 00ЦБ-001092</t>
+  </si>
+  <si>
+    <t>00ЦБ-001092</t>
+  </si>
+  <si>
+    <t>КРАЙСАЛКО ООО Отгрузка 18.01.2024 № 00ЦБ-001096</t>
+  </si>
+  <si>
+    <t>00ЦБ-001096</t>
+  </si>
+  <si>
+    <t>Гармония ПКФ ООО г.Н.Новгород Отгрузка 16.01.2024 № 00ЦБ-000854</t>
+  </si>
+  <si>
+    <t>00ЦБ-000854</t>
+  </si>
+  <si>
+    <t>Грейп ООО Отгрузка 20.01.2024 № 00ЦБ-001097</t>
+  </si>
+  <si>
+    <t>00ЦБ-001097</t>
+  </si>
+  <si>
+    <t>ДИОНИС -1 ООО Отгрузка 22.01.2024 № 00ЦБ-001167</t>
+  </si>
+  <si>
+    <t>00ЦБ-001167</t>
+  </si>
+  <si>
+    <t>Риф ТК ООО г. Саратов Отгрузка 23.01.2024 № 00ЦБ-000909</t>
+  </si>
+  <si>
+    <t>00ЦБ-000909</t>
+  </si>
+  <si>
+    <t>Ювикам ООО г. Петропавловск-Камчатский Отгрузка 23.01.2024 № 00ЦБ-001313</t>
+  </si>
+  <si>
+    <t>00ЦБ-001313</t>
+  </si>
+  <si>
+    <t>Русский продукт ООО Отгрузка 23.01.2024 № 00ЦБ-001335</t>
+  </si>
+  <si>
+    <t>00ЦБ-001335</t>
+  </si>
+  <si>
+    <t>Альтаир ТД ООО г. Иваново Отгрузка 23.01.2024 № 00ЦБ-001337</t>
+  </si>
+  <si>
+    <t>00ЦБ-001337</t>
+  </si>
+  <si>
+    <t>Альтаир ТД ООО г. Иваново Отгрузка 23.01.2024 № 00ЦБ-002168</t>
+  </si>
+  <si>
+    <t>00ЦБ-002168</t>
+  </si>
+  <si>
+    <t>Опт Алко Отгрузка 24.01.2024 № 00ЦБ-001514</t>
+  </si>
+  <si>
+    <t>00ЦБ-001514</t>
+  </si>
+  <si>
+    <t>Опт Алко Отгрузка 24.01.2024 № 00ЦБ-001515</t>
+  </si>
+  <si>
+    <t>00ЦБ-001515</t>
+  </si>
+  <si>
+    <t>Северный ООО Норильск Отгрузка 24.01.2024 № 00ЦБ-002210</t>
+  </si>
+  <si>
+    <t>00ЦБ-002210</t>
+  </si>
+  <si>
+    <t>Северный ООО Норильск Отгрузка 25.01.2024 № 00ЦБ-002212</t>
+  </si>
+  <si>
+    <t>00ЦБ-002212</t>
+  </si>
+  <si>
+    <t>Северный ООО Норильск Отгрузка 27.01.2024 № 00ЦБ-002200</t>
+  </si>
+  <si>
+    <t>00ЦБ-002200</t>
+  </si>
+  <si>
+    <t>Северный ООО Норильск Отгрузка 29.01.2024 № 00ЦБ-002213</t>
+  </si>
+  <si>
+    <t>00ЦБ-002213</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12450,7 +13665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -12493,12 +13708,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -12513,6 +13769,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -12846,8 +14114,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14604182-79C1-40CD-8524-B4AD868C3E7F}" name="Таблица1" displayName="Таблица1" ref="A1:G2062" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7" headerRowCellStyle="Обычный_Sheet1" dataCellStyle="Обычный_Sheet1">
-  <autoFilter ref="A1:G2062" xr:uid="{14604182-79C1-40CD-8524-B4AD868C3E7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14604182-79C1-40CD-8524-B4AD868C3E7F}" name="Таблица1" displayName="Таблица1" ref="A1:G2264" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7" headerRowCellStyle="Обычный_Sheet1" dataCellStyle="Обычный_Sheet1">
+  <autoFilter ref="A1:G2264" xr:uid="{14604182-79C1-40CD-8524-B4AD868C3E7F}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F7CACD60-D851-498C-AAB0-388CA14BDD79}" name="Заказ" dataDxfId="6" dataCellStyle="Обычный_Sheet1"/>
     <tableColumn id="2" xr3:uid="{F9F25008-2B0E-4ABB-A94C-9C793D51B754}" name="orderNum" dataDxfId="5" dataCellStyle="Обычный_Sheet1"/>
@@ -13124,10 +14392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2062"/>
+  <dimension ref="A1:G2264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40894,10 +42162,10 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="B1210" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="C1210" s="5">
         <v>45208</v>
@@ -40906,21 +42174,21 @@
         <v>45213</v>
       </c>
       <c r="E1210" s="5">
-        <v>45211.624062499999</v>
+        <v>45211.623252314814</v>
       </c>
       <c r="F1210" s="5">
-        <v>45211.684212962966</v>
+        <v>45211.684374999997</v>
       </c>
       <c r="G1210">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B1211" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="C1211" s="5">
         <v>45208</v>
@@ -40929,21 +42197,21 @@
         <v>45213</v>
       </c>
       <c r="E1211" s="5">
-        <v>45211.62290509259</v>
+        <v>45211.624062499999</v>
       </c>
       <c r="F1211" s="5">
-        <v>45211.684328703705</v>
+        <v>45211.684212962966</v>
       </c>
       <c r="G1211">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="B1212" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="C1212" s="5">
         <v>45208</v>
@@ -40952,13 +42220,13 @@
         <v>45213</v>
       </c>
       <c r="E1212" s="5">
-        <v>45211.623252314814</v>
+        <v>45211.623831018522</v>
       </c>
       <c r="F1212" s="5">
-        <v>45211.684374999997</v>
+        <v>45211.684166666666</v>
       </c>
       <c r="G1212">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
@@ -40986,10 +42254,10 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="B1214" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="C1214" s="5">
         <v>45208</v>
@@ -40998,13 +42266,13 @@
         <v>45213</v>
       </c>
       <c r="E1214" s="5">
-        <v>45211.623831018522</v>
+        <v>45211.62290509259</v>
       </c>
       <c r="F1214" s="5">
-        <v>45211.684166666666</v>
+        <v>45211.684328703705</v>
       </c>
       <c r="G1214">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
@@ -41055,10 +42323,10 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B1217" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="C1217" s="5">
         <v>45210</v>
@@ -41067,10 +42335,10 @@
         <v>45213</v>
       </c>
       <c r="E1217" s="5">
-        <v>45212.462500000001</v>
+        <v>45211.700370370374</v>
       </c>
       <c r="F1217" s="5">
-        <v>45212.611157407409</v>
+        <v>45212.436180555553</v>
       </c>
       <c r="G1217">
         <v>5</v>
@@ -41078,10 +42346,10 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="B1218" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="C1218" s="5">
         <v>45210</v>
@@ -41090,10 +42358,10 @@
         <v>45213</v>
       </c>
       <c r="E1218" s="5">
-        <v>45211.700370370374</v>
+        <v>45212.462500000001</v>
       </c>
       <c r="F1218" s="5">
-        <v>45212.436180555553</v>
+        <v>45212.611157407409</v>
       </c>
       <c r="G1218">
         <v>5</v>
@@ -53952,10 +55220,10 @@
     </row>
     <row r="1778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1778" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="B1778" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C1778" s="5">
         <v>45250</v>
@@ -53964,21 +55232,21 @@
         <v>45257</v>
       </c>
       <c r="E1778" s="5">
-        <v>45253.63422453704</v>
+        <v>45253.634444444448</v>
       </c>
       <c r="F1778" s="5">
-        <v>45253.660381944443</v>
+        <v>45253.660312499997</v>
       </c>
       <c r="G1778">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="B1779" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="C1779" s="5">
         <v>45250</v>
@@ -53987,13 +55255,13 @@
         <v>45257</v>
       </c>
       <c r="E1779" s="5">
-        <v>45253.634444444448</v>
+        <v>45253.63422453704</v>
       </c>
       <c r="F1779" s="5">
-        <v>45253.660312499997</v>
+        <v>45253.660381944443</v>
       </c>
       <c r="G1779">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1780" spans="1:7" x14ac:dyDescent="0.25">
@@ -59323,7 +60591,7 @@
         <v>45273.677071759259</v>
       </c>
       <c r="F2011" s="5">
-        <v>45274.387083333335</v>
+        <v>45281.630983796298</v>
       </c>
       <c r="G2011">
         <v>26</v>
@@ -60343,163 +61611,4809 @@
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2056" t="s">
-        <v>4115</v>
+        <v>4129</v>
       </c>
       <c r="B2056" t="s">
-        <v>4116</v>
+        <v>4130</v>
       </c>
       <c r="C2056" s="5">
-        <v>45271.451365740744</v>
+        <v>45257.662673611114</v>
       </c>
       <c r="D2056" s="5">
         <v>45279</v>
       </c>
       <c r="E2056" s="5">
-        <v>45275.590567129628</v>
+        <v>45279.380069444444</v>
       </c>
       <c r="F2056" s="5">
-        <v>45275.613888888889</v>
+        <v>45279.405543981484</v>
       </c>
       <c r="G2056">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2057" t="s">
-        <v>4117</v>
+        <v>4131</v>
       </c>
       <c r="B2057" t="s">
-        <v>4118</v>
+        <v>4132</v>
       </c>
       <c r="C2057" s="5">
-        <v>45271.460104166668</v>
+        <v>45264.396331018521</v>
       </c>
       <c r="D2057" s="5">
         <v>45279</v>
       </c>
       <c r="E2057" s="5">
-        <v>45275.590798611112</v>
+        <v>45278.420925925922</v>
       </c>
       <c r="F2057" s="5">
-        <v>45275.613935185182</v>
+        <v>45278.693842592591</v>
       </c>
       <c r="G2057">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2058" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2058" t="s">
-        <v>4119</v>
+        <v>4133</v>
       </c>
       <c r="B2058" t="s">
-        <v>4120</v>
+        <v>4134</v>
       </c>
       <c r="C2058" s="5">
-        <v>45271.478483796294</v>
+        <v>45268.426099537035</v>
       </c>
       <c r="D2058" s="5">
         <v>45279</v>
       </c>
       <c r="E2058" s="5">
-        <v>45275.591840277775</v>
+        <v>45278.54215277778</v>
       </c>
       <c r="F2058" s="5">
-        <v>45275.614050925928</v>
+        <v>45278.69494212963</v>
       </c>
       <c r="G2058">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2059" t="s">
-        <v>4121</v>
+        <v>4135</v>
       </c>
       <c r="B2059" t="s">
-        <v>4122</v>
+        <v>4136</v>
       </c>
       <c r="C2059" s="5">
-        <v>45271.478738425925</v>
+        <v>45268.427187499998</v>
       </c>
       <c r="D2059" s="5">
         <v>45279</v>
       </c>
       <c r="E2059" s="5">
-        <v>45275.591608796298</v>
+        <v>45278.542615740742</v>
       </c>
       <c r="F2059" s="5">
-        <v>45275.613993055558</v>
+        <v>45278.694988425923</v>
       </c>
       <c r="G2059">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2060" t="s">
-        <v>4123</v>
+        <v>4137</v>
       </c>
       <c r="B2060" t="s">
-        <v>4124</v>
+        <v>4138</v>
       </c>
       <c r="C2060" s="5">
-        <v>45275.600682870368</v>
+        <v>45268.42863425926</v>
       </c>
       <c r="D2060" s="5">
         <v>45279</v>
       </c>
       <c r="E2060" s="5">
-        <v>45275.626805555556</v>
+        <v>45278.542847222219</v>
       </c>
       <c r="F2060" s="5">
-        <v>45275.642199074071</v>
+        <v>45278.693888888891</v>
       </c>
       <c r="G2060">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2061" t="s">
-        <v>4125</v>
+        <v>4115</v>
       </c>
       <c r="B2061" t="s">
-        <v>4126</v>
+        <v>4116</v>
       </c>
       <c r="C2061" s="5">
-        <v>45273.508726851855</v>
+        <v>45271.451365740744</v>
       </c>
       <c r="D2061" s="5">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="E2061" s="5">
-        <v>45275.632939814815</v>
+        <v>45275.590567129628</v>
       </c>
       <c r="F2061" s="5">
-        <v>45275.642384259256</v>
+        <v>45275.613888888889</v>
       </c>
       <c r="G2061">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2062" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C2062" s="5">
+        <v>45271.460104166668</v>
+      </c>
+      <c r="D2062" s="5">
+        <v>45279</v>
+      </c>
+      <c r="E2062" s="5">
+        <v>45275.590798611112</v>
+      </c>
+      <c r="F2062" s="5">
+        <v>45275.613935185182</v>
+      </c>
+      <c r="G2062">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2063" s="6" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B2063" s="7" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C2063" s="7">
+        <v>45271.478483796294</v>
+      </c>
+      <c r="D2063" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2063" s="7">
+        <v>45275.591840277775</v>
+      </c>
+      <c r="F2063" s="8">
+        <v>45275.614050925928</v>
+      </c>
+      <c r="G2063" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2064" s="6" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B2064" s="7" t="s">
+        <v>4122</v>
+      </c>
+      <c r="C2064" s="7">
+        <v>45271.478738425925</v>
+      </c>
+      <c r="D2064" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2064" s="7">
+        <v>45275.591608796298</v>
+      </c>
+      <c r="F2064" s="8">
+        <v>45275.613993055558</v>
+      </c>
+      <c r="G2064" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2065" s="6" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B2065" s="7" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C2065" s="7">
+        <v>45272.713518518518</v>
+      </c>
+      <c r="D2065" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2065" s="7">
+        <v>45278.733483796299</v>
+      </c>
+      <c r="F2065" s="8">
+        <v>45279.372048611112</v>
+      </c>
+      <c r="G2065" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2066" s="6" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B2066" s="7" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C2066" s="7">
+        <v>45274.676064814812</v>
+      </c>
+      <c r="D2066" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2066" s="7">
+        <v>45278.69326388889</v>
+      </c>
+      <c r="F2066" s="8">
+        <v>45279.371793981481</v>
+      </c>
+      <c r="G2066" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2067" s="6" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B2067" s="7" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C2067" s="7">
+        <v>45274.681666666664</v>
+      </c>
+      <c r="D2067" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2067" s="7">
+        <v>45279.447974537034</v>
+      </c>
+      <c r="F2067" s="8">
+        <v>45279.558576388888</v>
+      </c>
+      <c r="G2067" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2068" s="6" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B2068" s="7" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C2068" s="7">
+        <v>45274.724178240744</v>
+      </c>
+      <c r="D2068" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2068" s="7">
+        <v>45278.733506944445</v>
+      </c>
+      <c r="F2068" s="8">
+        <v>45279.372002314813</v>
+      </c>
+      <c r="G2068" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2069" s="6" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B2069" s="7" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C2069" s="7">
+        <v>45275.416932870372</v>
+      </c>
+      <c r="D2069" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2069" s="7">
+        <v>45278.543194444443</v>
+      </c>
+      <c r="F2069" s="8">
+        <v>45278.69394675926</v>
+      </c>
+      <c r="G2069" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2070" s="6" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B2070" s="7" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C2070" s="7">
+        <v>45275.464166666665</v>
+      </c>
+      <c r="D2070" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2070" s="7">
+        <v>45278.575624999998</v>
+      </c>
+      <c r="F2070" s="8">
+        <v>45278.695138888892</v>
+      </c>
+      <c r="G2070" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2071" s="6" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B2071" s="7" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C2071" s="7">
+        <v>45275.464907407404</v>
+      </c>
+      <c r="D2071" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2071" s="7">
+        <v>45278.543888888889</v>
+      </c>
+      <c r="F2071" s="8">
+        <v>45278.693993055553</v>
+      </c>
+      <c r="G2071" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2072" s="6" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B2072" s="7" t="s">
+        <v>4154</v>
+      </c>
+      <c r="C2072" s="7">
+        <v>45275.508194444446</v>
+      </c>
+      <c r="D2072" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2072" s="7">
+        <v>45278.733449074076</v>
+      </c>
+      <c r="F2072" s="8">
+        <v>45279.371932870374</v>
+      </c>
+      <c r="G2072" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2073" s="6" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B2073" s="7" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C2073" s="7">
+        <v>45275.600682870368</v>
+      </c>
+      <c r="D2073" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2073" s="7">
+        <v>45275.626805555556</v>
+      </c>
+      <c r="F2073" s="8">
+        <v>45275.642199074071</v>
+      </c>
+      <c r="G2073" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2074" s="6" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B2074" s="7" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C2074" s="7">
+        <v>45275.74796296296</v>
+      </c>
+      <c r="D2074" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E2074" s="7">
+        <v>45278.486458333333</v>
+      </c>
+      <c r="F2074" s="8">
+        <v>45281.425081018519</v>
+      </c>
+      <c r="G2074" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2075" s="6" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B2075" s="7" t="s">
+        <v>4158</v>
+      </c>
+      <c r="C2075" s="7">
+        <v>45240.460636574076</v>
+      </c>
+      <c r="D2075" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2075" s="7">
+        <v>45279.786203703705</v>
+      </c>
+      <c r="F2075" s="8">
+        <v>45280.35565972222</v>
+      </c>
+      <c r="G2075" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2076" s="6" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B2076" s="7" t="s">
+        <v>4160</v>
+      </c>
+      <c r="C2076" s="7">
+        <v>45243.531122685185</v>
+      </c>
+      <c r="D2076" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2076" s="7">
+        <v>45279.78665509259</v>
+      </c>
+      <c r="F2076" s="8">
+        <v>45280.355717592596</v>
+      </c>
+      <c r="G2076" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2077" s="6" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B2077" s="7" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C2077" s="7">
+        <v>45261.703090277777</v>
+      </c>
+      <c r="D2077" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2077" s="7">
+        <v>45280.385011574072</v>
+      </c>
+      <c r="F2077" s="8">
+        <v>45280.398993055554</v>
+      </c>
+      <c r="G2077" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2078" s="6" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B2078" s="7" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C2078" s="7">
+        <v>45271.478981481479</v>
+      </c>
+      <c r="D2078" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2078" s="7">
+        <v>45279.480428240742</v>
+      </c>
+      <c r="F2078" s="8">
+        <v>45279.558530092596</v>
+      </c>
+      <c r="G2078" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2079" s="6" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B2079" s="7" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C2079" s="7">
+        <v>45271.506539351853</v>
+      </c>
+      <c r="D2079" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2079" s="7">
+        <v>45279.804131944446</v>
+      </c>
+      <c r="F2079" s="8">
+        <v>45280.355208333334</v>
+      </c>
+      <c r="G2079" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2080" s="6" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B2080" s="7" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C2080" s="7">
+        <v>45272.47960648148</v>
+      </c>
+      <c r="D2080" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2080" s="7">
+        <v>45279.805405092593</v>
+      </c>
+      <c r="F2080" s="8">
+        <v>45280.355381944442</v>
+      </c>
+      <c r="G2080" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2081" s="6" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B2081" s="7" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C2081" s="7">
+        <v>45272.484282407408</v>
+      </c>
+      <c r="D2081" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2081" s="7">
+        <v>45279.806574074071</v>
+      </c>
+      <c r="F2081" s="8">
+        <v>45280.355590277781</v>
+      </c>
+      <c r="G2081" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2082" s="6" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B2082" s="7" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C2082" s="7">
+        <v>45272.596377314818</v>
+      </c>
+      <c r="D2082" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2082" s="7">
+        <v>45278.601134259261</v>
+      </c>
+      <c r="F2082" s="8">
+        <v>45278.695497685185</v>
+      </c>
+      <c r="G2082" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2083" s="6" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B2083" s="7" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C2083" s="7">
+        <v>45272.608993055554</v>
+      </c>
+      <c r="D2083" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2083" s="7">
+        <v>45278.599733796298</v>
+      </c>
+      <c r="F2083" s="8">
+        <v>45278.695381944446</v>
+      </c>
+      <c r="G2083" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2084" s="6" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B2084" s="7" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C2084" s="7">
+        <v>45272.610162037039</v>
+      </c>
+      <c r="D2084" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2084" s="7">
+        <v>45278.600555555553</v>
+      </c>
+      <c r="F2084" s="8">
+        <v>45278.695451388892</v>
+      </c>
+      <c r="G2084" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2085" s="6" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B2085" s="7" t="s">
+        <v>4178</v>
+      </c>
+      <c r="C2085" s="7">
+        <v>45272.644409722219</v>
+      </c>
+      <c r="D2085" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2085" s="7">
+        <v>45278.492465277777</v>
+      </c>
+      <c r="F2085" s="8">
+        <v>45278.695543981485</v>
+      </c>
+      <c r="G2085" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2086" s="6" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B2086" s="7" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C2086" s="7">
+        <v>45273.508726851855</v>
+      </c>
+      <c r="D2086" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2086" s="7">
+        <v>45275.632939814815</v>
+      </c>
+      <c r="F2086" s="8">
+        <v>45275.642384259256</v>
+      </c>
+      <c r="G2086" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2087" s="6" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B2087" s="7" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C2087" s="7">
+        <v>45275.509398148148</v>
+      </c>
+      <c r="D2087" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2087" s="7">
+        <v>45278.733472222222</v>
+      </c>
+      <c r="F2087" s="8">
+        <v>45279.371967592589</v>
+      </c>
+      <c r="G2087" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2088" s="6" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B2088" s="7" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C2088" s="7">
+        <v>45278</v>
+      </c>
+      <c r="D2088" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2088" s="7">
+        <v>45280.386863425927</v>
+      </c>
+      <c r="F2088" s="8">
+        <v>45280.399062500001</v>
+      </c>
+      <c r="G2088" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2089" s="6" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B2089" s="7" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C2089" s="7">
+        <v>45278.459745370368</v>
+      </c>
+      <c r="D2089" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2089" s="7">
+        <v>45278.610046296293</v>
+      </c>
+      <c r="F2089" s="8">
+        <v>45278.696111111109</v>
+      </c>
+      <c r="G2089" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2090" s="6" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B2090" s="7" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C2090" s="7">
+        <v>45278.602847222224</v>
+      </c>
+      <c r="D2090" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2090" s="7">
+        <v>45278.606921296298</v>
+      </c>
+      <c r="F2090" s="8">
+        <v>45278.695590277777</v>
+      </c>
+      <c r="G2090" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2091" s="6" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B2091" s="7" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C2091" s="7">
+        <v>45278.62636574074</v>
+      </c>
+      <c r="D2091" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2091" s="7">
+        <v>45279.813981481479</v>
+      </c>
+      <c r="F2091" s="8">
+        <v>45280.355312500003</v>
+      </c>
+      <c r="G2091" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2092" s="6" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B2092" s="7" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C2092" s="7">
+        <v>45278.66982638889</v>
+      </c>
+      <c r="D2092" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2092" s="7">
+        <v>45279.48159722222</v>
+      </c>
+      <c r="F2092" s="8">
+        <v>45279.558472222219</v>
+      </c>
+      <c r="G2092" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2093" s="6" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B2093" s="7" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C2093" s="7">
+        <v>45278.72152777778</v>
+      </c>
+      <c r="D2093" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2093" s="7">
+        <v>45279.724594907406</v>
+      </c>
+      <c r="F2093" s="8">
+        <v>45280.355798611112</v>
+      </c>
+      <c r="G2093" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2094" s="6" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B2094" s="7" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C2094" s="7">
+        <v>45279.398946759262</v>
+      </c>
+      <c r="D2094" s="7">
+        <v>45280</v>
+      </c>
+      <c r="E2094" s="7">
+        <v>45279.817118055558</v>
+      </c>
+      <c r="F2094" s="8">
+        <v>45280.355439814812</v>
+      </c>
+      <c r="G2094" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2095" s="6" t="s">
         <v>4127</v>
       </c>
-      <c r="B2062" t="s">
+      <c r="B2095" s="7" t="s">
         <v>4128</v>
       </c>
-      <c r="C2062" s="5">
+      <c r="C2095" s="7">
         <v>45267.543310185189</v>
       </c>
-      <c r="D2062" s="5">
+      <c r="D2095" s="7">
         <v>45281</v>
       </c>
-      <c r="E2062" s="5">
+      <c r="E2095" s="7">
         <v>45273.650462962964</v>
       </c>
-      <c r="F2062" s="5">
+      <c r="F2095" s="8">
         <v>45275.382881944446</v>
       </c>
-      <c r="G2062">
+      <c r="G2095" s="9">
         <v>32</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2096" s="6" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B2096" s="7" t="s">
+        <v>4196</v>
+      </c>
+      <c r="C2096" s="7">
+        <v>45271.417175925926</v>
+      </c>
+      <c r="D2096" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2096" s="7">
+        <v>45279.481944444444</v>
+      </c>
+      <c r="F2096" s="8">
+        <v>45279.558425925927</v>
+      </c>
+      <c r="G2096" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2097" s="6" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B2097" s="7" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C2097" s="7">
+        <v>45272.422754629632</v>
+      </c>
+      <c r="D2097" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2097" s="7">
+        <v>45278.62091435185</v>
+      </c>
+      <c r="F2097" s="8">
+        <v>45278.69604166667</v>
+      </c>
+      <c r="G2097" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2098" s="6" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B2098" s="7" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C2098" s="7">
+        <v>45272.482743055552</v>
+      </c>
+      <c r="D2098" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2098" s="7">
+        <v>45280.57608796296</v>
+      </c>
+      <c r="F2098" s="8">
+        <v>45280.688715277778</v>
+      </c>
+      <c r="G2098" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2099" s="6" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B2099" s="7" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C2099" s="7">
+        <v>45272.492673611108</v>
+      </c>
+      <c r="D2099" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2099" s="7">
+        <v>45280.576423611114</v>
+      </c>
+      <c r="F2099" s="8">
+        <v>45280.688761574071</v>
+      </c>
+      <c r="G2099" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2100" s="6" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B2100" s="7" t="s">
+        <v>4204</v>
+      </c>
+      <c r="C2100" s="7">
+        <v>45273.479953703703</v>
+      </c>
+      <c r="D2100" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2100" s="7">
+        <v>45280.466863425929</v>
+      </c>
+      <c r="F2100" s="8">
+        <v>45280.551770833335</v>
+      </c>
+      <c r="G2100" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2101" s="6" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B2101" s="7" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C2101" s="7">
+        <v>45273.483854166669</v>
+      </c>
+      <c r="D2101" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2101" s="7">
+        <v>45280.63989583333</v>
+      </c>
+      <c r="F2101" s="8">
+        <v>45280.689837962964</v>
+      </c>
+      <c r="G2101" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2102" s="6" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B2102" s="7" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C2102" s="7">
+        <v>45275.755208333336</v>
+      </c>
+      <c r="D2102" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2102" s="7">
+        <v>45280.510185185187</v>
+      </c>
+      <c r="F2102" s="8">
+        <v>45280.551712962966</v>
+      </c>
+      <c r="G2102" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2103" s="6" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B2103" s="7" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C2103" s="7">
+        <v>45278.522766203707</v>
+      </c>
+      <c r="D2103" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2103" s="7">
+        <v>45278.623229166667</v>
+      </c>
+      <c r="F2103" s="8">
+        <v>45278.695925925924</v>
+      </c>
+      <c r="G2103" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2104" s="6" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B2104" s="7" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C2104" s="7">
+        <v>45278.61173611111</v>
+      </c>
+      <c r="D2104" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2104" s="7">
+        <v>45280.646493055552</v>
+      </c>
+      <c r="F2104" s="8">
+        <v>45280.69</v>
+      </c>
+      <c r="G2104" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2105" s="6" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B2105" s="7" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C2105" s="7">
+        <v>45278.671053240738</v>
+      </c>
+      <c r="D2105" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2105" s="7">
+        <v>45279.482870370368</v>
+      </c>
+      <c r="F2105" s="8">
+        <v>45280.572662037041</v>
+      </c>
+      <c r="G2105" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2106" s="6" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B2106" s="7" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C2106" s="7">
+        <v>45278.677083333336</v>
+      </c>
+      <c r="D2106" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2106" s="7">
+        <v>45280.678576388891</v>
+      </c>
+      <c r="F2106" s="8">
+        <v>45280.688611111109</v>
+      </c>
+      <c r="G2106" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2107" s="6" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B2107" s="7" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C2107" s="7">
+        <v>45278.678078703706</v>
+      </c>
+      <c r="D2107" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2107" s="7">
+        <v>45279.485185185185</v>
+      </c>
+      <c r="F2107" s="8">
+        <v>45279.558275462965</v>
+      </c>
+      <c r="G2107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2108" s="6" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B2108" s="7" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C2108" s="7">
+        <v>45278.678414351853</v>
+      </c>
+      <c r="D2108" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2108" s="7">
+        <v>45280.679502314815</v>
+      </c>
+      <c r="F2108" s="8">
+        <v>45280.688657407409</v>
+      </c>
+      <c r="G2108" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2109" s="6" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B2109" s="7" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C2109" s="7">
+        <v>45278.710694444446</v>
+      </c>
+      <c r="D2109" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2109" s="7">
+        <v>45280.582233796296</v>
+      </c>
+      <c r="F2109" s="8">
+        <v>45280.688807870371</v>
+      </c>
+      <c r="G2109" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2110" s="6" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B2110" s="7" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C2110" s="7">
+        <v>45279.45453703704</v>
+      </c>
+      <c r="D2110" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2110" s="7">
+        <v>45279.607534722221</v>
+      </c>
+      <c r="F2110" s="8">
+        <v>45280.355856481481</v>
+      </c>
+      <c r="G2110" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2111" s="6" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B2111" s="7" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C2111" s="7">
+        <v>45279.478425925925</v>
+      </c>
+      <c r="D2111" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2111" s="7">
+        <v>45280.58048611111</v>
+      </c>
+      <c r="F2111" s="8">
+        <v>45280.688981481479</v>
+      </c>
+      <c r="G2111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2112" s="6" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B2112" s="7" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C2112" s="7">
+        <v>45280.495578703703</v>
+      </c>
+      <c r="D2112" s="7">
+        <v>45281</v>
+      </c>
+      <c r="E2112" s="7">
+        <v>45280.580717592595</v>
+      </c>
+      <c r="F2112" s="8">
+        <v>45280.689097222225</v>
+      </c>
+      <c r="G2112" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2113" s="6" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B2113" s="7" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C2113" s="7">
+        <v>45245.701782407406</v>
+      </c>
+      <c r="D2113" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2113" s="7">
+        <v>45281.390416666669</v>
+      </c>
+      <c r="F2113" s="8">
+        <v>45281.425300925926</v>
+      </c>
+      <c r="G2113" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2114" s="6" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B2114" s="7" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C2114" s="7">
+        <v>45245.724166666667</v>
+      </c>
+      <c r="D2114" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2114" s="7">
+        <v>45281.390648148146</v>
+      </c>
+      <c r="F2114" s="8">
+        <v>45281.425254629627</v>
+      </c>
+      <c r="G2114" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2115" s="6" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B2115" s="7" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C2115" s="7">
+        <v>45272.470497685186</v>
+      </c>
+      <c r="D2115" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2115" s="7">
+        <v>45281.366238425922</v>
+      </c>
+      <c r="F2115" s="8">
+        <v>45281.425729166665</v>
+      </c>
+      <c r="G2115" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2116" s="6" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B2116" s="7" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C2116" s="7">
+        <v>45274.636423611111</v>
+      </c>
+      <c r="D2116" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2116" s="7">
+        <v>45279.80263888889</v>
+      </c>
+      <c r="F2116" s="8">
+        <v>45280.399027777778</v>
+      </c>
+      <c r="G2116" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2117" s="6" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B2117" s="7" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C2117" s="7">
+        <v>45274.638472222221</v>
+      </c>
+      <c r="D2117" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2117" s="7">
+        <v>45279.802870370368</v>
+      </c>
+      <c r="F2117" s="8">
+        <v>45280.440162037034</v>
+      </c>
+      <c r="G2117" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2118" s="6" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B2118" s="7" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C2118" s="7">
+        <v>45274.743807870371</v>
+      </c>
+      <c r="D2118" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2118" s="7">
+        <v>45281.624143518522</v>
+      </c>
+      <c r="F2118" s="8">
+        <v>45281.659733796296</v>
+      </c>
+      <c r="G2118" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2119" s="6" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B2119" s="7" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C2119" s="7">
+        <v>45274.744479166664</v>
+      </c>
+      <c r="D2119" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2119" s="7">
+        <v>45281.624374999999</v>
+      </c>
+      <c r="F2119" s="8">
+        <v>45281.659687500003</v>
+      </c>
+      <c r="G2119" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2120" s="6" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B2120" s="7" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C2120" s="7">
+        <v>45275.751145833332</v>
+      </c>
+      <c r="D2120" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2120" s="7">
+        <v>45278.485300925924</v>
+      </c>
+      <c r="F2120" s="8">
+        <v>45281.425185185188</v>
+      </c>
+      <c r="G2120" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2121" s="6" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B2121" s="7" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C2121" s="7">
+        <v>45279.508402777778</v>
+      </c>
+      <c r="D2121" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2121" s="7">
+        <v>45281.508344907408</v>
+      </c>
+      <c r="F2121" s="8">
+        <v>45281.683703703704</v>
+      </c>
+      <c r="G2121" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2122" s="6" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B2122" s="7" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C2122" s="7">
+        <v>45279.77416666667</v>
+      </c>
+      <c r="D2122" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2122" s="7">
+        <v>45280.51284722222</v>
+      </c>
+      <c r="F2122" s="8">
+        <v>45280.689444444448</v>
+      </c>
+      <c r="G2122" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2123" s="6" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B2123" s="7" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C2123" s="7">
+        <v>45279.823611111111</v>
+      </c>
+      <c r="D2123" s="7">
+        <v>45282</v>
+      </c>
+      <c r="E2123" s="7">
+        <v>45280.513414351852</v>
+      </c>
+      <c r="F2123" s="8">
+        <v>45280.689606481479</v>
+      </c>
+      <c r="G2123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2124" s="6" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B2124" s="7" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C2124" s="7">
+        <v>45085.468206018515</v>
+      </c>
+      <c r="D2124" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2124" s="7">
+        <v>45282.589479166665</v>
+      </c>
+      <c r="F2124" s="8">
+        <v>45282.600914351853</v>
+      </c>
+      <c r="G2124" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2125" s="6" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B2125" s="7" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C2125" s="7">
+        <v>45257.507685185185</v>
+      </c>
+      <c r="D2125" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2125" s="7">
+        <v>45282.597581018519</v>
+      </c>
+      <c r="F2125" s="8">
+        <v>45282.601145833331</v>
+      </c>
+      <c r="G2125" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2126" s="6" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B2126" s="7" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C2126" s="7">
+        <v>45258.597291666665</v>
+      </c>
+      <c r="D2126" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2126" s="7">
+        <v>45282.604305555556</v>
+      </c>
+      <c r="F2126" s="8">
+        <v>45282.604456018518</v>
+      </c>
+      <c r="G2126" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2127" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B2127" s="7" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C2127" s="7">
+        <v>45258.599398148152</v>
+      </c>
+      <c r="D2127" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2127" s="7">
+        <v>45282.59642361111</v>
+      </c>
+      <c r="F2127" s="8">
+        <v>45283.526087962964</v>
+      </c>
+      <c r="G2127" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2128" s="6" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B2128" s="7" t="s">
+        <v>4260</v>
+      </c>
+      <c r="C2128" s="7">
+        <v>45271.689236111109</v>
+      </c>
+      <c r="D2128" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2128" s="7">
+        <v>45282.526736111111</v>
+      </c>
+      <c r="F2128" s="8">
+        <v>45282.585520833331</v>
+      </c>
+      <c r="G2128" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2129" s="6" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B2129" s="7" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C2129" s="7">
+        <v>45272.473067129627</v>
+      </c>
+      <c r="D2129" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2129" s="7">
+        <v>45281.367048611108</v>
+      </c>
+      <c r="F2129" s="8">
+        <v>45281.425682870373</v>
+      </c>
+      <c r="G2129" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2130" s="6" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B2130" s="7" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C2130" s="7">
+        <v>45273.515231481484</v>
+      </c>
+      <c r="D2130" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2130" s="7">
+        <v>45279.716493055559</v>
+      </c>
+      <c r="F2130" s="8">
+        <v>45280.355914351851</v>
+      </c>
+      <c r="G2130" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2131" s="6" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B2131" s="7" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C2131" s="7">
+        <v>45273.517118055555</v>
+      </c>
+      <c r="D2131" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2131" s="7">
+        <v>45279.716828703706</v>
+      </c>
+      <c r="F2131" s="8">
+        <v>45280.35596064815</v>
+      </c>
+      <c r="G2131" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2132" s="6" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B2132" s="7" t="s">
+        <v>4268</v>
+      </c>
+      <c r="C2132" s="7">
+        <v>45275.472719907404</v>
+      </c>
+      <c r="D2132" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2132" s="7">
+        <v>45282.393622685187</v>
+      </c>
+      <c r="F2132" s="8">
+        <v>45282.464189814818</v>
+      </c>
+      <c r="G2132" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2133" s="6" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B2133" s="7" t="s">
+        <v>4270</v>
+      </c>
+      <c r="C2133" s="7">
+        <v>45278.526608796295</v>
+      </c>
+      <c r="D2133" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2133" s="7">
+        <v>45278.625555555554</v>
+      </c>
+      <c r="F2133" s="8">
+        <v>45278.695173611108</v>
+      </c>
+      <c r="G2133" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2134" s="6" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B2134" s="7" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C2134" s="7">
+        <v>45278.527094907404</v>
+      </c>
+      <c r="D2134" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2134" s="7">
+        <v>45278.626250000001</v>
+      </c>
+      <c r="F2134" s="8">
+        <v>45278.695231481484</v>
+      </c>
+      <c r="G2134" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2135" s="6" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B2135" s="7" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C2135" s="7">
+        <v>45278.52853009259</v>
+      </c>
+      <c r="D2135" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2135" s="7">
+        <v>45278.627291666664</v>
+      </c>
+      <c r="F2135" s="8">
+        <v>45278.695277777777</v>
+      </c>
+      <c r="G2135" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2136" s="6" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B2136" s="7" t="s">
+        <v>4276</v>
+      </c>
+      <c r="C2136" s="7">
+        <v>45278.568425925929</v>
+      </c>
+      <c r="D2136" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2136" s="7">
+        <v>45279.780069444445</v>
+      </c>
+      <c r="F2136" s="8">
+        <v>45280.440243055556</v>
+      </c>
+      <c r="G2136" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2137" s="6" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B2137" s="7" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C2137" s="7">
+        <v>45278.571238425924</v>
+      </c>
+      <c r="D2137" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2137" s="7">
+        <v>45279.779247685183</v>
+      </c>
+      <c r="F2137" s="8">
+        <v>45280.440289351849</v>
+      </c>
+      <c r="G2137" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2138" s="6" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B2138" s="7" t="s">
+        <v>4280</v>
+      </c>
+      <c r="C2138" s="7">
+        <v>45278.628101851849</v>
+      </c>
+      <c r="D2138" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2138" s="7">
+        <v>45281.434224537035</v>
+      </c>
+      <c r="F2138" s="8">
+        <v>45281.497777777775</v>
+      </c>
+      <c r="G2138" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2139" s="6" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B2139" s="7" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C2139" s="7">
+        <v>45278.743622685186</v>
+      </c>
+      <c r="D2139" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2139" s="7">
+        <v>45281.52815972222</v>
+      </c>
+      <c r="F2139" s="8">
+        <v>45281.683865740742</v>
+      </c>
+      <c r="G2139" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2140" s="6" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B2140" s="7" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C2140" s="7">
+        <v>45278.78361111111</v>
+      </c>
+      <c r="D2140" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2140" s="7">
+        <v>45281.462037037039</v>
+      </c>
+      <c r="F2140" s="8">
+        <v>45282.506898148145</v>
+      </c>
+      <c r="G2140" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2141" s="6" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B2141" s="7" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C2141" s="7">
+        <v>45279.506736111114</v>
+      </c>
+      <c r="D2141" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2141" s="7">
+        <v>45281.508703703701</v>
+      </c>
+      <c r="F2141" s="8">
+        <v>45281.659768518519</v>
+      </c>
+      <c r="G2141" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2142" s="6" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B2142" s="7" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C2142" s="7">
+        <v>45279.604317129626</v>
+      </c>
+      <c r="D2142" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2142" s="7">
+        <v>45282.394074074073</v>
+      </c>
+      <c r="F2142" s="8">
+        <v>45282.463831018518</v>
+      </c>
+      <c r="G2142" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2143" s="6" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B2143" s="7" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C2143" s="7">
+        <v>45279.673993055556</v>
+      </c>
+      <c r="D2143" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2143" s="7">
+        <v>45282.487256944441</v>
+      </c>
+      <c r="F2143" s="8">
+        <v>45282.600752314815</v>
+      </c>
+      <c r="G2143" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2144" s="6" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B2144" s="7" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C2144" s="7">
+        <v>45279.683194444442</v>
+      </c>
+      <c r="D2144" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2144" s="7">
+        <v>45282.498831018522</v>
+      </c>
+      <c r="F2144" s="8">
+        <v>45282.600636574076</v>
+      </c>
+      <c r="G2144" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2145" s="6" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B2145" s="7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C2145" s="7">
+        <v>45279.690243055556</v>
+      </c>
+      <c r="D2145" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2145" s="7">
+        <v>45282.499305555553</v>
+      </c>
+      <c r="F2145" s="8">
+        <v>45282.585902777777</v>
+      </c>
+      <c r="G2145" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2146" s="6" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B2146" s="7" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C2146" s="7">
+        <v>45279.699328703704</v>
+      </c>
+      <c r="D2146" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2146" s="7">
+        <v>45281.636319444442</v>
+      </c>
+      <c r="F2146" s="8">
+        <v>45281.659594907411</v>
+      </c>
+      <c r="G2146" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2147" s="6" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B2147" s="7" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C2147" s="7">
+        <v>45279.711493055554</v>
+      </c>
+      <c r="D2147" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2147" s="7">
+        <v>45281.561388888891</v>
+      </c>
+      <c r="F2147" s="8">
+        <v>45281.659641203703</v>
+      </c>
+      <c r="G2147" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2148" s="6" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B2148" s="7" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C2148" s="7">
+        <v>45279.724942129629</v>
+      </c>
+      <c r="D2148" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2148" s="7">
+        <v>45282.401736111111</v>
+      </c>
+      <c r="F2148" s="8">
+        <v>45282.464143518519</v>
+      </c>
+      <c r="G2148" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2149" s="6" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B2149" s="7" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C2149" s="7">
+        <v>45279.738159722219</v>
+      </c>
+      <c r="D2149" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2149" s="7">
+        <v>45281.561620370368</v>
+      </c>
+      <c r="F2149" s="8">
+        <v>45281.6247337963</v>
+      </c>
+      <c r="G2149" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2150" s="6" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B2150" s="7" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C2150" s="7">
+        <v>45279.752314814818</v>
+      </c>
+      <c r="D2150" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2150" s="7">
+        <v>45280.76152777778</v>
+      </c>
+      <c r="F2150" s="8">
+        <v>45281.390914351854</v>
+      </c>
+      <c r="G2150" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2151" s="6" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B2151" s="7" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C2151" s="7">
+        <v>45280.361608796295</v>
+      </c>
+      <c r="D2151" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2151" s="7">
+        <v>45281.369004629632</v>
+      </c>
+      <c r="F2151" s="8">
+        <v>45281.42560185185</v>
+      </c>
+      <c r="G2151" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2152" s="6" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B2152" s="7" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C2152" s="7">
+        <v>45280.397060185183</v>
+      </c>
+      <c r="D2152" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2152" s="7">
+        <v>45280.504733796297</v>
+      </c>
+      <c r="F2152" s="8">
+        <v>45280.689155092594</v>
+      </c>
+      <c r="G2152" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2153" s="6" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B2153" s="7" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C2153" s="7">
+        <v>45280.483101851853</v>
+      </c>
+      <c r="D2153" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2153" s="7">
+        <v>45281.709074074075</v>
+      </c>
+      <c r="F2153" s="8">
+        <v>45282.600821759261</v>
+      </c>
+      <c r="G2153" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2154" s="6" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B2154" s="7" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C2154" s="7">
+        <v>45280.60800925926</v>
+      </c>
+      <c r="D2154" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2154" s="7">
+        <v>45282.537951388891</v>
+      </c>
+      <c r="F2154" s="8">
+        <v>45282.586215277777</v>
+      </c>
+      <c r="G2154" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2155" s="6" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B2155" s="7" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C2155" s="7">
+        <v>45280.638483796298</v>
+      </c>
+      <c r="D2155" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2155" s="7">
+        <v>45282.538993055554</v>
+      </c>
+      <c r="F2155" s="8">
+        <v>45282.586168981485</v>
+      </c>
+      <c r="G2155" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2156" s="6" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B2156" s="7" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C2156" s="7">
+        <v>45280.648240740738</v>
+      </c>
+      <c r="D2156" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2156" s="7">
+        <v>45282.539699074077</v>
+      </c>
+      <c r="F2156" s="8">
+        <v>45282.586111111108</v>
+      </c>
+      <c r="G2156" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2157" s="6" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B2157" s="7" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C2157" s="7">
+        <v>45280.649421296293</v>
+      </c>
+      <c r="D2157" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2157" s="7">
+        <v>45282.540625000001</v>
+      </c>
+      <c r="F2157" s="8">
+        <v>45282.586064814815</v>
+      </c>
+      <c r="G2157" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2158" s="6" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B2158" s="7" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C2158" s="7">
+        <v>45280.689571759256</v>
+      </c>
+      <c r="D2158" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2158" s="7">
+        <v>45280.690636574072</v>
+      </c>
+      <c r="F2158" s="8">
+        <v>45281.391921296294</v>
+      </c>
+      <c r="G2158" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2159" s="6" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B2159" s="7" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C2159" s="7">
+        <v>45280.709282407406</v>
+      </c>
+      <c r="D2159" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2159" s="7">
+        <v>45281.637233796297</v>
+      </c>
+      <c r="F2159" s="8">
+        <v>45281.683819444443</v>
+      </c>
+      <c r="G2159" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2160" s="6" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B2160" s="7" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C2160" s="7">
+        <v>45280.741932870369</v>
+      </c>
+      <c r="D2160" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2160" s="7">
+        <v>45281.635740740741</v>
+      </c>
+      <c r="F2160" s="8">
+        <v>45281.659814814811</v>
+      </c>
+      <c r="G2160" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2161" s="6" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B2161" s="7" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C2161" s="7">
+        <v>45281.392233796294</v>
+      </c>
+      <c r="D2161" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2161" s="7">
+        <v>45281.462604166663</v>
+      </c>
+      <c r="F2161" s="8">
+        <v>45281.497743055559</v>
+      </c>
+      <c r="G2161" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2162" s="6" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B2162" s="7" t="s">
+        <v>4328</v>
+      </c>
+      <c r="C2162" s="7">
+        <v>45281.41028935185</v>
+      </c>
+      <c r="D2162" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2162" s="7">
+        <v>45282.622476851851</v>
+      </c>
+      <c r="F2162" s="8">
+        <v>45282.706805555557</v>
+      </c>
+      <c r="G2162" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2163" s="6" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B2163" s="7" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C2163" s="7">
+        <v>45281.493738425925</v>
+      </c>
+      <c r="D2163" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2163" s="7">
+        <v>45281.668645833335</v>
+      </c>
+      <c r="F2163" s="8">
+        <v>45281.68378472222</v>
+      </c>
+      <c r="G2163" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2164" s="6" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B2164" s="7" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C2164" s="7">
+        <v>45281.498807870368</v>
+      </c>
+      <c r="D2164" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2164" s="7">
+        <v>45281.668877314813</v>
+      </c>
+      <c r="F2164" s="8">
+        <v>45281.683749999997</v>
+      </c>
+      <c r="G2164" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2165" s="6" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B2165" s="7" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C2165" s="7">
+        <v>45281.56459490741</v>
+      </c>
+      <c r="D2165" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2165" s="7">
+        <v>45282.705254629633</v>
+      </c>
+      <c r="F2165" s="8">
+        <v>45282.764027777775</v>
+      </c>
+      <c r="G2165" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2166" s="6" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B2166" s="7" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C2166" s="7">
+        <v>45281.633912037039</v>
+      </c>
+      <c r="D2166" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2166" s="7">
+        <v>45282.542002314818</v>
+      </c>
+      <c r="F2166" s="8">
+        <v>45282.586018518516</v>
+      </c>
+      <c r="G2166" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2167" s="6" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B2167" s="7" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C2167" s="7">
+        <v>45281.639826388891</v>
+      </c>
+      <c r="D2167" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2167" s="7">
+        <v>45282.543634259258</v>
+      </c>
+      <c r="F2167" s="8">
+        <v>45282.585949074077</v>
+      </c>
+      <c r="G2167" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2168" s="6" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B2168" s="7" t="s">
+        <v>4340</v>
+      </c>
+      <c r="C2168" s="7">
+        <v>45281.65834490741</v>
+      </c>
+      <c r="D2168" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2168" s="7">
+        <v>45282.520243055558</v>
+      </c>
+      <c r="F2168" s="8">
+        <v>45282.586342592593</v>
+      </c>
+      <c r="G2168" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2169" s="6" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B2169" s="7" t="s">
+        <v>4342</v>
+      </c>
+      <c r="C2169" s="7">
+        <v>45282.492013888892</v>
+      </c>
+      <c r="D2169" s="7">
+        <v>45283</v>
+      </c>
+      <c r="E2169" s="7">
+        <v>45282.520740740743</v>
+      </c>
+      <c r="F2169" s="8">
+        <v>45282.586296296293</v>
+      </c>
+      <c r="G2169" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2170" s="6" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B2170" s="7" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C2170" s="7">
+        <v>45259.671956018516</v>
+      </c>
+      <c r="D2170" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2170" s="7">
+        <v>45285.661099537036</v>
+      </c>
+      <c r="F2170" s="8">
+        <v>45285.663715277777</v>
+      </c>
+      <c r="G2170" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2171" s="6" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B2171" s="7" t="s">
+        <v>4346</v>
+      </c>
+      <c r="C2171" s="7">
+        <v>45260.454618055555</v>
+      </c>
+      <c r="D2171" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2171" s="7">
+        <v>45282.705601851849</v>
+      </c>
+      <c r="F2171" s="8">
+        <v>45282.764305555553</v>
+      </c>
+      <c r="G2171" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2172" s="6" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B2172" s="7" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C2172" s="7">
+        <v>45275.415833333333</v>
+      </c>
+      <c r="D2172" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2172" s="7">
+        <v>45281.38590277778</v>
+      </c>
+      <c r="F2172" s="8">
+        <v>45281.425775462965</v>
+      </c>
+      <c r="G2172" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2173" s="6" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B2173" s="7" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C2173" s="7">
+        <v>45278.694398148145</v>
+      </c>
+      <c r="D2173" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2173" s="7">
+        <v>45282.718819444446</v>
+      </c>
+      <c r="F2173" s="8">
+        <v>45282.76394675926</v>
+      </c>
+      <c r="G2173" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2174" s="6" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B2174" s="7" t="s">
+        <v>4352</v>
+      </c>
+      <c r="C2174" s="7">
+        <v>45279.684374999997</v>
+      </c>
+      <c r="D2174" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2174" s="7">
+        <v>45282.499768518515</v>
+      </c>
+      <c r="F2174" s="8">
+        <v>45282.585694444446</v>
+      </c>
+      <c r="G2174" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2175" s="6" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B2175" s="7" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C2175" s="7">
+        <v>45279.714363425926</v>
+      </c>
+      <c r="D2175" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2175" s="7">
+        <v>45282.401273148149</v>
+      </c>
+      <c r="F2175" s="8">
+        <v>45282.463773148149</v>
+      </c>
+      <c r="G2175" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2176" s="6" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B2176" s="7" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C2176" s="7">
+        <v>45279.732673611114</v>
+      </c>
+      <c r="D2176" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2176" s="7">
+        <v>45280.757476851853</v>
+      </c>
+      <c r="F2176" s="8">
+        <v>45281.391736111109</v>
+      </c>
+      <c r="G2176" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2177" s="6" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B2177" s="7" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C2177" s="7">
+        <v>45279.734525462962</v>
+      </c>
+      <c r="D2177" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2177" s="7">
+        <v>45280.757696759261</v>
+      </c>
+      <c r="F2177" s="8">
+        <v>45281.391782407409</v>
+      </c>
+      <c r="G2177" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2178" s="6" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B2178" s="7" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C2178" s="7">
+        <v>45279.751550925925</v>
+      </c>
+      <c r="D2178" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2178" s="7">
+        <v>45280.757939814815</v>
+      </c>
+      <c r="F2178" s="8">
+        <v>45281.391585648147</v>
+      </c>
+      <c r="G2178" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2179" s="6" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B2179" s="7" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C2179" s="7">
+        <v>45279.753784722219</v>
+      </c>
+      <c r="D2179" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2179" s="7">
+        <v>45280.758287037039</v>
+      </c>
+      <c r="F2179" s="8">
+        <v>45281.390821759262</v>
+      </c>
+      <c r="G2179" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2180" s="6" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B2180" s="7" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C2180" s="7">
+        <v>45279.755590277775</v>
+      </c>
+      <c r="D2180" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2180" s="7">
+        <v>45280.760023148148</v>
+      </c>
+      <c r="F2180" s="8">
+        <v>45281.390868055554</v>
+      </c>
+      <c r="G2180" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2181" s="6" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B2181" s="7" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C2181" s="7">
+        <v>45280.600104166668</v>
+      </c>
+      <c r="D2181" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2181" s="7">
+        <v>45282.611712962964</v>
+      </c>
+      <c r="F2181" s="8">
+        <v>45282.62572916667</v>
+      </c>
+      <c r="G2181" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2182" s="6" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B2182" s="7" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C2182" s="7">
+        <v>45280.695706018516</v>
+      </c>
+      <c r="D2182" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2182" s="7">
+        <v>45280.696539351855</v>
+      </c>
+      <c r="F2182" s="8">
+        <v>45280.71980324074</v>
+      </c>
+      <c r="G2182" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2183" s="6" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B2183" s="7" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C2183" s="7">
+        <v>45280.698009259257</v>
+      </c>
+      <c r="D2183" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2183" s="7">
+        <v>45280.730034722219</v>
+      </c>
+      <c r="F2183" s="8">
+        <v>45281.392060185186</v>
+      </c>
+      <c r="G2183" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2184" s="6" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B2184" s="7" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C2184" s="7">
+        <v>45280.702280092592</v>
+      </c>
+      <c r="D2184" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2184" s="7">
+        <v>45280.759328703702</v>
+      </c>
+      <c r="F2184" s="8">
+        <v>45281.391631944447</v>
+      </c>
+      <c r="G2184" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2185" s="6" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B2185" s="7" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C2185" s="7">
+        <v>45280.703773148147</v>
+      </c>
+      <c r="D2185" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2185" s="7">
+        <v>45280.760254629633</v>
+      </c>
+      <c r="F2185" s="8">
+        <v>45281.391689814816</v>
+      </c>
+      <c r="G2185" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2186" s="6" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B2186" s="7" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C2186" s="7">
+        <v>45281.39565972222</v>
+      </c>
+      <c r="D2186" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2186" s="7">
+        <v>45285.410034722219</v>
+      </c>
+      <c r="F2186" s="8">
+        <v>45285.438668981478</v>
+      </c>
+      <c r="G2186" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2187" s="6" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B2187" s="7" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C2187" s="7">
+        <v>45281.502766203703</v>
+      </c>
+      <c r="D2187" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2187" s="7">
+        <v>45282.706064814818</v>
+      </c>
+      <c r="F2187" s="8">
+        <v>45282.764085648145</v>
+      </c>
+      <c r="G2187" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2188" s="6" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B2188" s="7" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C2188" s="7">
+        <v>45281.503622685188</v>
+      </c>
+      <c r="D2188" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2188" s="7">
+        <v>45282.706284722219</v>
+      </c>
+      <c r="F2188" s="8">
+        <v>45282.764131944445</v>
+      </c>
+      <c r="G2188" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2189" s="6" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B2189" s="7" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C2189" s="7">
+        <v>45281.70553240741</v>
+      </c>
+      <c r="D2189" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2189" s="7">
+        <v>45282.706516203703</v>
+      </c>
+      <c r="F2189" s="8">
+        <v>45282.764236111114</v>
+      </c>
+      <c r="G2189" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2190" s="6" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B2190" s="7" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C2190" s="7">
+        <v>45282.443541666667</v>
+      </c>
+      <c r="D2190" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2190" s="7">
+        <v>45282.527303240742</v>
+      </c>
+      <c r="F2190" s="8">
+        <v>45282.600543981483</v>
+      </c>
+      <c r="G2190" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2191" s="6" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B2191" s="7" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C2191" s="7">
+        <v>45285.544907407406</v>
+      </c>
+      <c r="D2191" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2191" s="7">
+        <v>45285.569976851853</v>
+      </c>
+      <c r="F2191" s="8">
+        <v>45285.66028935185</v>
+      </c>
+      <c r="G2191" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2192" s="6" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B2192" s="7" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C2192" s="7">
+        <v>45285.549224537041</v>
+      </c>
+      <c r="D2192" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2192" s="7">
+        <v>45285.571493055555</v>
+      </c>
+      <c r="F2192" s="8">
+        <v>45285.612592592595</v>
+      </c>
+      <c r="G2192" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2193" s="6" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B2193" s="7" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C2193" s="7">
+        <v>45285.552395833336</v>
+      </c>
+      <c r="D2193" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2193" s="7">
+        <v>45285.582708333335</v>
+      </c>
+      <c r="F2193" s="8">
+        <v>45285.612453703703</v>
+      </c>
+      <c r="G2193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2194" s="6" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B2194" s="7" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C2194" s="7">
+        <v>45285.554988425924</v>
+      </c>
+      <c r="D2194" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E2194" s="7">
+        <v>45285.580393518518</v>
+      </c>
+      <c r="F2194" s="8">
+        <v>45285.612500000003</v>
+      </c>
+      <c r="G2194" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2195" s="6" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B2195" s="7" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C2195" s="7">
+        <v>45250.773587962962</v>
+      </c>
+      <c r="D2195" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2195" s="7">
+        <v>45286.430011574077</v>
+      </c>
+      <c r="F2195" s="8">
+        <v>45286.43072916667</v>
+      </c>
+      <c r="G2195" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2196" s="6" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B2196" s="7" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C2196" s="7">
+        <v>45267.589687500003</v>
+      </c>
+      <c r="D2196" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2196" s="7">
+        <v>45286.430486111109</v>
+      </c>
+      <c r="F2196" s="8">
+        <v>45286.430787037039</v>
+      </c>
+      <c r="G2196" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2197" s="6" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B2197" s="7" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C2197" s="7">
+        <v>45275.677662037036</v>
+      </c>
+      <c r="D2197" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2197" s="7">
+        <v>45278.733483796299</v>
+      </c>
+      <c r="F2197" s="8">
+        <v>45279.371840277781</v>
+      </c>
+      <c r="G2197" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2198" s="6" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B2198" s="7" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C2198" s="7">
+        <v>45275.681215277778</v>
+      </c>
+      <c r="D2198" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2198" s="7">
+        <v>45278.733495370368</v>
+      </c>
+      <c r="F2198" s="8">
+        <v>45279.371886574074</v>
+      </c>
+      <c r="G2198" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2199" s="6" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B2199" s="7" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C2199" s="7">
+        <v>45275.709432870368</v>
+      </c>
+      <c r="D2199" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2199" s="7">
+        <v>45285.726967592593</v>
+      </c>
+      <c r="F2199" s="8">
+        <v>45286.37462962963</v>
+      </c>
+      <c r="G2199" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2200" s="6" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B2200" s="7" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C2200" s="7">
+        <v>45279.679166666669</v>
+      </c>
+      <c r="D2200" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2200" s="7">
+        <v>45282.500231481485</v>
+      </c>
+      <c r="F2200" s="8">
+        <v>45282.585601851853</v>
+      </c>
+      <c r="G2200" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2201" s="6" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B2201" s="7" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C2201" s="7">
+        <v>45279.73060185185</v>
+      </c>
+      <c r="D2201" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2201" s="7">
+        <v>45285.414895833332</v>
+      </c>
+      <c r="F2201" s="8">
+        <v>45285.438715277778</v>
+      </c>
+      <c r="G2201" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2202" s="6" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B2202" s="7" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C2202" s="7">
+        <v>45280.60732638889</v>
+      </c>
+      <c r="D2202" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2202" s="7">
+        <v>45282.560173611113</v>
+      </c>
+      <c r="F2202" s="8">
+        <v>45282.586261574077</v>
+      </c>
+      <c r="G2202" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2203" s="6" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B2203" s="7" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C2203" s="7">
+        <v>45280.657083333332</v>
+      </c>
+      <c r="D2203" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2203" s="7">
+        <v>45285.439432870371</v>
+      </c>
+      <c r="F2203" s="8">
+        <v>45285.612638888888</v>
+      </c>
+      <c r="G2203" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2204" s="6" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B2204" s="7" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C2204" s="7">
+        <v>45281.417812500003</v>
+      </c>
+      <c r="D2204" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2204" s="7">
+        <v>45285.598935185182</v>
+      </c>
+      <c r="F2204" s="8">
+        <v>45285.660381944443</v>
+      </c>
+      <c r="G2204" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2205" s="6" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B2205" s="7" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C2205" s="7">
+        <v>45282.544074074074</v>
+      </c>
+      <c r="D2205" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2205" s="7">
+        <v>45285.720717592594</v>
+      </c>
+      <c r="F2205" s="8">
+        <v>45286.374456018515</v>
+      </c>
+      <c r="G2205" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2206" s="6" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B2206" s="7" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C2206" s="7">
+        <v>45282.600891203707</v>
+      </c>
+      <c r="D2206" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2206" s="7">
+        <v>45285.727199074077</v>
+      </c>
+      <c r="F2206" s="8">
+        <v>45286.374710648146</v>
+      </c>
+      <c r="G2206" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2207" s="6" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B2207" s="7" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C2207" s="7">
+        <v>45282.618113425924</v>
+      </c>
+      <c r="D2207" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2207" s="7">
+        <v>45286.413356481484</v>
+      </c>
+      <c r="F2207" s="8">
+        <v>45286.424340277779</v>
+      </c>
+      <c r="G2207" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2208" s="6" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B2208" s="7" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C2208" s="7">
+        <v>45285.609976851854</v>
+      </c>
+      <c r="D2208" s="7">
+        <v>45286</v>
+      </c>
+      <c r="E2208" s="7">
+        <v>45285.610960648148</v>
+      </c>
+      <c r="F2208" s="8">
+        <v>45285.66033564815</v>
+      </c>
+      <c r="G2208" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2209" s="6" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B2209" s="7" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C2209" s="7">
+        <v>45271.704571759263</v>
+      </c>
+      <c r="D2209" s="7">
+        <v>45287</v>
+      </c>
+      <c r="E2209" s="7">
+        <v>45286.389166666668</v>
+      </c>
+      <c r="F2209" s="8">
+        <v>45286.414386574077</v>
+      </c>
+      <c r="G2209" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2210" s="6" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B2210" s="7" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C2210" s="7">
+        <v>45280.659131944441</v>
+      </c>
+      <c r="D2210" s="7">
+        <v>45287</v>
+      </c>
+      <c r="E2210" s="7">
+        <v>45287.429398148146</v>
+      </c>
+      <c r="F2210" s="8">
+        <v>45287.446967592594</v>
+      </c>
+      <c r="G2210" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2211" s="6" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B2211" s="7" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C2211" s="7">
+        <v>45282.549305555556</v>
+      </c>
+      <c r="D2211" s="7">
+        <v>45287</v>
+      </c>
+      <c r="E2211" s="7">
+        <v>45287.389803240738</v>
+      </c>
+      <c r="F2211" s="8">
+        <v>45287.404907407406</v>
+      </c>
+      <c r="G2211" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2212" s="6" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B2212" s="7" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C2212" s="7">
+        <v>45282.551215277781</v>
+      </c>
+      <c r="D2212" s="7">
+        <v>45287</v>
+      </c>
+      <c r="E2212" s="7">
+        <v>45287.390034722222</v>
+      </c>
+      <c r="F2212" s="8">
+        <v>45287.404965277776</v>
+      </c>
+      <c r="G2212" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2213" s="6" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B2213" s="7" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C2213" s="7">
+        <v>45300.477881944447</v>
+      </c>
+      <c r="D2213" s="7">
+        <v>45301</v>
+      </c>
+      <c r="E2213" s="7">
+        <v>45300.774976851855</v>
+      </c>
+      <c r="F2213" s="8">
+        <v>45301.412465277775</v>
+      </c>
+      <c r="G2213" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2214" s="6" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B2214" s="7" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C2214" s="7">
+        <v>45300.333333333336</v>
+      </c>
+      <c r="D2214" s="7">
+        <v>45303</v>
+      </c>
+      <c r="E2214" s="7">
+        <v>45300.786064814813</v>
+      </c>
+      <c r="F2214" s="8">
+        <v>45301.652337962965</v>
+      </c>
+      <c r="G2214" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2215" s="6" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B2215" s="7" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C2215" s="7">
+        <v>45302.391944444447</v>
+      </c>
+      <c r="D2215" s="7">
+        <v>45303</v>
+      </c>
+      <c r="E2215" s="7">
+        <v>45302.39266203704</v>
+      </c>
+      <c r="F2215" s="8">
+        <v>45309.507569444446</v>
+      </c>
+      <c r="G2215" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2216" s="6" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B2216" s="7" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C2216" s="7">
+        <v>45300.419328703705</v>
+      </c>
+      <c r="D2216" s="7">
+        <v>45306</v>
+      </c>
+      <c r="E2216" s="7">
+        <v>45303.560810185183</v>
+      </c>
+      <c r="F2216" s="8">
+        <v>45303.704270833332</v>
+      </c>
+      <c r="G2216" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2217" s="6" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B2217" s="7" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C2217" s="7">
+        <v>45300.534236111111</v>
+      </c>
+      <c r="D2217" s="7">
+        <v>45306</v>
+      </c>
+      <c r="E2217" s="7">
+        <v>45306.404016203705</v>
+      </c>
+      <c r="F2217" s="8">
+        <v>45306.548888888887</v>
+      </c>
+      <c r="G2217" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2218" s="6" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B2218" s="7" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C2218" s="7">
+        <v>45300.698113425926</v>
+      </c>
+      <c r="D2218" s="7">
+        <v>45306</v>
+      </c>
+      <c r="E2218" s="7">
+        <v>45302.767650462964</v>
+      </c>
+      <c r="F2218" s="8">
+        <v>45306.44636574074</v>
+      </c>
+      <c r="G2218" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2219" s="6" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B2219" s="7" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C2219" s="7">
+        <v>45300.700208333335</v>
+      </c>
+      <c r="D2219" s="7">
+        <v>45306</v>
+      </c>
+      <c r="E2219" s="7">
+        <v>45303.397222222222</v>
+      </c>
+      <c r="F2219" s="8">
+        <v>45306.446481481478</v>
+      </c>
+      <c r="G2219" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2220" s="6" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B2220" s="7" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C2220" s="7">
+        <v>45302.458645833336</v>
+      </c>
+      <c r="D2220" s="7">
+        <v>45306</v>
+      </c>
+      <c r="E2220" s="7">
+        <v>45303.633506944447</v>
+      </c>
+      <c r="F2220" s="8">
+        <v>45306.548819444448</v>
+      </c>
+      <c r="G2220" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2221" s="6" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B2221" s="7" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C2221" s="7">
+        <v>45302.563530092593</v>
+      </c>
+      <c r="D2221" s="7">
+        <v>45306</v>
+      </c>
+      <c r="E2221" s="7">
+        <v>45302.744259259256</v>
+      </c>
+      <c r="F2221" s="8">
+        <v>45303.531898148147</v>
+      </c>
+      <c r="G2221" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2222" s="6" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B2222" s="7" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C2222" s="7">
+        <v>45303.411574074074</v>
+      </c>
+      <c r="D2222" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2222" s="7">
+        <v>45306.412349537037</v>
+      </c>
+      <c r="F2222" s="8">
+        <v>45307.45113425926</v>
+      </c>
+      <c r="G2222" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2223" s="6" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B2223" s="7" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C2223" s="7">
+        <v>45303.418611111112</v>
+      </c>
+      <c r="D2223" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2223" s="7">
+        <v>45306.724560185183</v>
+      </c>
+      <c r="F2223" s="8">
+        <v>45307.451226851852</v>
+      </c>
+      <c r="G2223" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2224" s="6" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B2224" s="7" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C2224" s="7">
+        <v>45303.425833333335</v>
+      </c>
+      <c r="D2224" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2224" s="7">
+        <v>45307.406365740739</v>
+      </c>
+      <c r="F2224" s="8">
+        <v>45307.45107638889</v>
+      </c>
+      <c r="G2224" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2225" s="6" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B2225" s="7" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C2225" s="7">
+        <v>45303.51599537037</v>
+      </c>
+      <c r="D2225" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2225" s="7">
+        <v>45306.455763888887</v>
+      </c>
+      <c r="F2225" s="8">
+        <v>45306.548981481479</v>
+      </c>
+      <c r="G2225" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2226" s="6" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B2226" s="7" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C2226" s="7">
+        <v>45303.516817129632</v>
+      </c>
+      <c r="D2226" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2226" s="7">
+        <v>45306.457048611112</v>
+      </c>
+      <c r="F2226" s="8">
+        <v>45306.549027777779</v>
+      </c>
+      <c r="G2226" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2227" s="6" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B2227" s="7" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C2227" s="7">
+        <v>45303.518275462964</v>
+      </c>
+      <c r="D2227" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2227" s="7">
+        <v>45306.457962962966</v>
+      </c>
+      <c r="F2227" s="8">
+        <v>45306.549097222225</v>
+      </c>
+      <c r="G2227" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2228" s="6" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B2228" s="7" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C2228" s="7">
+        <v>45303.598935185182</v>
+      </c>
+      <c r="D2228" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2228" s="7">
+        <v>45306.569513888891</v>
+      </c>
+      <c r="F2228" s="8">
+        <v>45307.37736111111</v>
+      </c>
+      <c r="G2228" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2229" s="6" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B2229" s="7" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C2229" s="7">
+        <v>45303.714155092595</v>
+      </c>
+      <c r="D2229" s="7">
+        <v>45307</v>
+      </c>
+      <c r="E2229" s="7">
+        <v>45306.569872685184</v>
+      </c>
+      <c r="F2229" s="8">
+        <v>45307.37740740741</v>
+      </c>
+      <c r="G2229" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2230" s="6" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B2230" s="7" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C2230" s="7">
+        <v>45300.420578703706</v>
+      </c>
+      <c r="D2230" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2230" s="7">
+        <v>45303.633622685185</v>
+      </c>
+      <c r="F2230" s="8">
+        <v>45303.704340277778</v>
+      </c>
+      <c r="G2230" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2231" s="6" t="s">
+        <v>4465</v>
+      </c>
+      <c r="B2231" s="7" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C2231" s="7">
+        <v>45301.390486111108</v>
+      </c>
+      <c r="D2231" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2231" s="7">
+        <v>45308.411446759259</v>
+      </c>
+      <c r="F2231" s="8">
+        <v>45308.481111111112</v>
+      </c>
+      <c r="G2231" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2232" s="6" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B2232" s="7" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C2232" s="7">
+        <v>45301.391631944447</v>
+      </c>
+      <c r="D2232" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2232" s="7">
+        <v>45308.411689814813</v>
+      </c>
+      <c r="F2232" s="8">
+        <v>45308.481145833335</v>
+      </c>
+      <c r="G2232" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2233" s="6" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2233" s="7" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C2233" s="7">
+        <v>45302.685949074075</v>
+      </c>
+      <c r="D2233" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2233" s="7">
+        <v>45306.608657407407</v>
+      </c>
+      <c r="F2233" s="8">
+        <v>45306.634768518517</v>
+      </c>
+      <c r="G2233" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2234" s="6" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B2234" s="7" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C2234" s="7">
+        <v>45302.68891203704</v>
+      </c>
+      <c r="D2234" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2234" s="7">
+        <v>45306.609710648147</v>
+      </c>
+      <c r="F2234" s="8">
+        <v>45306.634884259256</v>
+      </c>
+      <c r="G2234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2235" s="6" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B2235" s="7" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C2235" s="7">
+        <v>45302.693414351852</v>
+      </c>
+      <c r="D2235" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2235" s="7">
+        <v>45306.746689814812</v>
+      </c>
+      <c r="F2235" s="8">
+        <v>45307.451168981483</v>
+      </c>
+      <c r="G2235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2236" s="6" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B2236" s="7" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C2236" s="7">
+        <v>45302.697083333333</v>
+      </c>
+      <c r="D2236" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2236" s="7">
+        <v>45307.759791666664</v>
+      </c>
+      <c r="F2236" s="8">
+        <v>45308.381423611114</v>
+      </c>
+      <c r="G2236" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2237" s="6" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B2237" s="7" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C2237" s="7">
+        <v>45302.703483796293</v>
+      </c>
+      <c r="D2237" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2237" s="7">
+        <v>45307.76048611111</v>
+      </c>
+      <c r="F2237" s="8">
+        <v>45308.382638888892</v>
+      </c>
+      <c r="G2237" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2238" s="6" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B2238" s="7" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C2238" s="7">
+        <v>45302.704479166663</v>
+      </c>
+      <c r="D2238" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2238" s="7">
+        <v>45307.760949074072</v>
+      </c>
+      <c r="F2238" s="8">
+        <v>45308.383067129631</v>
+      </c>
+      <c r="G2238" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2239" s="6" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B2239" s="7" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C2239" s="7">
+        <v>45302.712407407409</v>
+      </c>
+      <c r="D2239" s="7">
+        <v>45308</v>
+      </c>
+      <c r="E2239" s="7">
+        <v>45307.761192129627</v>
+      </c>
+      <c r="F2239" s="8">
+        <v>45308.383113425924</v>
+      </c>
+      <c r="G2239" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2240" s="6" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B2240" s="7" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C2240" s="7">
+        <v>45292</v>
+      </c>
+      <c r="D2240" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2240" s="7">
+        <v>45309.475486111114</v>
+      </c>
+      <c r="F2240" s="8">
+        <v>45309.481053240743</v>
+      </c>
+      <c r="G2240" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2241" s="6" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B2241" s="7" t="s">
+        <v>4486</v>
+      </c>
+      <c r="C2241" s="7">
+        <v>45292</v>
+      </c>
+      <c r="D2241" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2241" s="7">
+        <v>45309.475254629629</v>
+      </c>
+      <c r="F2241" s="8">
+        <v>45309.481006944443</v>
+      </c>
+      <c r="G2241" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2242" s="6" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B2242" s="7" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C2242" s="7">
+        <v>45302.405324074076</v>
+      </c>
+      <c r="D2242" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2242" s="7">
+        <v>45308.408553240741</v>
+      </c>
+      <c r="F2242" s="8">
+        <v>45308.481192129628</v>
+      </c>
+      <c r="G2242" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2243" s="6" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B2243" s="7" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C2243" s="7">
+        <v>45302.685081018521</v>
+      </c>
+      <c r="D2243" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2243" s="7">
+        <v>45306.53429398148</v>
+      </c>
+      <c r="F2243" s="8">
+        <v>45306.59648148148</v>
+      </c>
+      <c r="G2243" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2244" s="6" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B2244" s="7" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C2244" s="7">
+        <v>45302.687708333331</v>
+      </c>
+      <c r="D2244" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2244" s="7">
+        <v>45306.609120370369</v>
+      </c>
+      <c r="F2244" s="8">
+        <v>45306.634826388887</v>
+      </c>
+      <c r="G2244" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2245" s="6" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B2245" s="7" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C2245" s="7">
+        <v>45302.691481481481</v>
+      </c>
+      <c r="D2245" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2245" s="7">
+        <v>45306.61005787037</v>
+      </c>
+      <c r="F2245" s="8">
+        <v>45306.634965277779</v>
+      </c>
+      <c r="G2245" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2246" s="6" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B2246" s="7" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C2246" s="7">
+        <v>45302.699270833335</v>
+      </c>
+      <c r="D2246" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2246" s="7">
+        <v>45307.761655092596</v>
+      </c>
+      <c r="F2246" s="8">
+        <v>45308.381701388891</v>
+      </c>
+      <c r="G2246" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2247" s="6" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B2247" s="7" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C2247" s="7">
+        <v>45302.7109837963</v>
+      </c>
+      <c r="D2247" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2247" s="7">
+        <v>45307.761874999997</v>
+      </c>
+      <c r="F2247" s="8">
+        <v>45308.383194444446</v>
+      </c>
+      <c r="G2247" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2248" s="6" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B2248" s="7" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C2248" s="7">
+        <v>45303.494976851849</v>
+      </c>
+      <c r="D2248" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2248" s="7">
+        <v>45308.593935185185</v>
+      </c>
+      <c r="F2248" s="8">
+        <v>45308.665393518517</v>
+      </c>
+      <c r="G2248" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2249" s="6" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B2249" s="7" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C2249" s="7">
+        <v>45303.634965277779</v>
+      </c>
+      <c r="D2249" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2249" s="7">
+        <v>45306.610636574071</v>
+      </c>
+      <c r="F2249" s="8">
+        <v>45306.635034722225</v>
+      </c>
+      <c r="G2249" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2250" s="6" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B2250" s="7" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C2250" s="7">
+        <v>45303.651076388887</v>
+      </c>
+      <c r="D2250" s="7">
+        <v>45309</v>
+      </c>
+      <c r="E2250" s="7">
+        <v>45307.606226851851</v>
+      </c>
+      <c r="F2250" s="8">
+        <v>45308.383287037039</v>
+      </c>
+      <c r="G2250" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2251" s="6" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B2251" s="7" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C2251" s="7">
+        <v>45301.649236111109</v>
+      </c>
+      <c r="D2251" s="7">
+        <v>45313</v>
+      </c>
+      <c r="E2251" s="7">
+        <v>45306.486018518517</v>
+      </c>
+      <c r="F2251" s="8">
+        <v>45307.377303240741</v>
+      </c>
+      <c r="G2251" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2252" s="6" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B2252" s="7" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C2252" s="7">
+        <v>45303.651990740742</v>
+      </c>
+      <c r="D2252" s="7">
+        <v>45313</v>
+      </c>
+      <c r="E2252" s="7">
+        <v>45308.535104166665</v>
+      </c>
+      <c r="F2252" s="8">
+        <v>45308.600972222222</v>
+      </c>
+      <c r="G2252" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2253" s="6" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B2253" s="7" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C2253" s="7">
+        <v>45306.40824074074</v>
+      </c>
+      <c r="D2253" s="7">
+        <v>45313</v>
+      </c>
+      <c r="E2253" s="7">
+        <v>45307.762465277781</v>
+      </c>
+      <c r="F2253" s="8">
+        <v>45308.600925925923</v>
+      </c>
+      <c r="G2253" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2254" s="6" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B2254" s="7" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C2254" s="7">
+        <v>45302.703796296293</v>
+      </c>
+      <c r="D2254" s="7">
+        <v>45314</v>
+      </c>
+      <c r="E2254" s="7">
+        <v>45313.739166666666</v>
+      </c>
+      <c r="F2254" s="8">
+        <v>45314.384166666663</v>
+      </c>
+      <c r="G2254" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2255" s="6" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B2255" s="7" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C2255" s="7">
+        <v>45306.483506944445</v>
+      </c>
+      <c r="D2255" s="7">
+        <v>45314</v>
+      </c>
+      <c r="E2255" s="7">
+        <v>45313.49318287037</v>
+      </c>
+      <c r="F2255" s="8">
+        <v>45314.384120370371</v>
+      </c>
+      <c r="G2255" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2256" s="6" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B2256" s="7" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C2256" s="7">
+        <v>45306.644768518519</v>
+      </c>
+      <c r="D2256" s="7">
+        <v>45314</v>
+      </c>
+      <c r="E2256" s="7">
+        <v>45313.550312500003</v>
+      </c>
+      <c r="F2256" s="8">
+        <v>45314.384062500001</v>
+      </c>
+      <c r="G2256" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2257" s="6" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B2257" s="7" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C2257" s="7">
+        <v>45306.68340277778</v>
+      </c>
+      <c r="D2257" s="7">
+        <v>45314</v>
+      </c>
+      <c r="E2257" s="7">
+        <v>45313.558530092596</v>
+      </c>
+      <c r="F2257" s="8">
+        <v>45314.383935185186</v>
+      </c>
+      <c r="G2257" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2258" s="6" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B2258" s="7" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C2258" s="7">
+        <v>45313.457199074073</v>
+      </c>
+      <c r="D2258" s="7">
+        <v>45314</v>
+      </c>
+      <c r="E2258" s="7">
+        <v>45313.603206018517</v>
+      </c>
+      <c r="F2258" s="8">
+        <v>45314.384004629632</v>
+      </c>
+      <c r="G2258" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2259" s="6" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B2259" s="7" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C2259" s="7">
+        <v>45308.388518518521</v>
+      </c>
+      <c r="D2259" s="7">
+        <v>45315</v>
+      </c>
+      <c r="E2259" s="7">
+        <v>45314.356469907405</v>
+      </c>
+      <c r="F2259" s="8">
+        <v>45314.52511574074</v>
+      </c>
+      <c r="G2259" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2260" s="6" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B2260" s="7" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C2260" s="7">
+        <v>45308.390960648147</v>
+      </c>
+      <c r="D2260" s="7">
+        <v>45315</v>
+      </c>
+      <c r="E2260" s="7">
+        <v>45314.356932870367</v>
+      </c>
+      <c r="F2260" s="8">
+        <v>45314.527291666665</v>
+      </c>
+      <c r="G2260" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2261" s="6" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B2261" s="7" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C2261" s="7">
+        <v>45313.690462962964</v>
+      </c>
+      <c r="D2261" s="7">
+        <v>45315</v>
+      </c>
+      <c r="E2261" s="7">
+        <v>45314.501423611109</v>
+      </c>
+      <c r="F2261" s="8">
+        <v>45314.678865740738</v>
+      </c>
+      <c r="G2261" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2262" s="6" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B2262" s="7" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C2262" s="7">
+        <v>45313.697048611109</v>
+      </c>
+      <c r="D2262" s="7">
+        <v>45316</v>
+      </c>
+      <c r="E2262" s="7">
+        <v>45314.486828703702</v>
+      </c>
+      <c r="F2262" s="8">
+        <v>45314.678923611114</v>
+      </c>
+      <c r="G2262" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2263" s="6" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B2263" s="7" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C2263" s="7">
+        <v>45313.676215277781</v>
+      </c>
+      <c r="D2263" s="7">
+        <v>45317</v>
+      </c>
+      <c r="E2263" s="7">
+        <v>45314.590983796297</v>
+      </c>
+      <c r="F2263" s="8">
+        <v>45314.678807870368</v>
+      </c>
+      <c r="G2263" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2264" s="6" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B2264" s="7" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C2264" s="7">
+        <v>45313.702743055554</v>
+      </c>
+      <c r="D2264" s="7">
+        <v>45320</v>
+      </c>
+      <c r="E2264" s="7">
+        <v>45314.592604166668</v>
+      </c>
+      <c r="F2264" s="8">
+        <v>45314.679027777776</v>
+      </c>
+      <c r="G2264" s="9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
